--- a/submission/0a7822c59487_TGS.xlsx
+++ b/submission/0a7822c59487_TGS.xlsx
@@ -396,7 +396,7 @@
         <v>5868</v>
       </c>
       <c r="B2">
-        <v>86.17366027832031</v>
+        <v>104.0857086181641</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>5868.5</v>
       </c>
       <c r="B3">
-        <v>89.08761596679688</v>
+        <v>104.9478073120117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>5869</v>
       </c>
       <c r="B4">
-        <v>89.72755432128906</v>
+        <v>105.5877456665039</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>5869.5</v>
       </c>
       <c r="B5">
-        <v>88.09044647216797</v>
+        <v>105.5877456665039</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5870</v>
       </c>
       <c r="B6">
-        <v>87.59065246582031</v>
+        <v>105.0879516601562</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5870.5</v>
       </c>
       <c r="B7">
-        <v>88.198486328125</v>
+        <v>105.4710998535156</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>5871</v>
       </c>
       <c r="B8">
-        <v>93.98199462890625</v>
+        <v>106.4824905395508</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>5871.5</v>
       </c>
       <c r="B9">
-        <v>89.12319183349609</v>
+        <v>106.3957977294922</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>5872</v>
       </c>
       <c r="B10">
-        <v>87.53073883056641</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>5872.5</v>
       </c>
       <c r="B11">
-        <v>87.53073883056641</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>5873</v>
       </c>
       <c r="B12">
-        <v>89.1678466796875</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>5873.5</v>
       </c>
       <c r="B13">
-        <v>89.89535522460938</v>
+        <v>105.7555389404297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>5874</v>
       </c>
       <c r="B14">
-        <v>94.95135498046875</v>
+        <v>106.0394287109375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>5874.5</v>
       </c>
       <c r="B15">
-        <v>93.30887603759766</v>
+        <v>106.0340576171875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>5875</v>
       </c>
       <c r="B16">
-        <v>93.37416076660156</v>
+        <v>106.0993423461914</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>5875.5</v>
       </c>
       <c r="B17">
-        <v>87.53073883056641</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>5876</v>
       </c>
       <c r="B18">
-        <v>89.1678466796875</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>5876.5</v>
       </c>
       <c r="B19">
-        <v>89.08761596679688</v>
+        <v>104.9478073120117</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>5877</v>
       </c>
       <c r="B20">
-        <v>87.53073883056641</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>5877.5</v>
       </c>
       <c r="B21">
-        <v>87.59065246582031</v>
+        <v>105.0879516601562</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>5878</v>
       </c>
       <c r="B22">
-        <v>87.59065246582031</v>
+        <v>105.0879516601562</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>5878.5</v>
       </c>
       <c r="B23">
-        <v>87.53073883056641</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>5879</v>
       </c>
       <c r="B24">
-        <v>87.53073883056641</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>5879.5</v>
       </c>
       <c r="B25">
-        <v>87.53073883056641</v>
+        <v>105.0280380249023</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1956,7 +1956,7 @@
         <v>5965.5</v>
       </c>
       <c r="B197">
-        <v>95.13876342773438</v>
+        <v>102.3433609008789</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1964,7 +1964,7 @@
         <v>5966</v>
       </c>
       <c r="B198">
-        <v>96.18248748779297</v>
+        <v>99.6114501953125</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>5966.5</v>
       </c>
       <c r="B199">
-        <v>94.18727874755859</v>
+        <v>97.91675567626953</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>5967</v>
       </c>
       <c r="B200">
-        <v>91.33853149414062</v>
+        <v>96.77198791503906</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>5967.5</v>
       </c>
       <c r="B201">
-        <v>91.45741271972656</v>
+        <v>96.890869140625</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>5968</v>
       </c>
       <c r="B202">
-        <v>94.01509857177734</v>
+        <v>98.55434417724609</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>5968.5</v>
       </c>
       <c r="B203">
-        <v>94.76923370361328</v>
+        <v>99.6783447265625</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>5969</v>
       </c>
       <c r="B204">
-        <v>94.01509857177734</v>
+        <v>98.81776428222656</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2020,7 +2020,7 @@
         <v>5969.5</v>
       </c>
       <c r="B205">
-        <v>93.00764465332031</v>
+        <v>97.81031036376953</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>5970</v>
       </c>
       <c r="B206">
-        <v>92.647216796875</v>
+        <v>97.81031036376953</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>5970.5</v>
       </c>
       <c r="B207">
-        <v>91.51844024658203</v>
+        <v>97.35044097900391</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>5971</v>
       </c>
       <c r="B208">
-        <v>91.75205993652344</v>
+        <v>97.28354644775391</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>5971.5</v>
       </c>
       <c r="B209">
-        <v>91.21908569335938</v>
+        <v>98.33083343505859</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>5972</v>
       </c>
       <c r="B210">
-        <v>91.21250915527344</v>
+        <v>98.32425689697266</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>5972.5</v>
       </c>
       <c r="B211">
-        <v>93.51364898681641</v>
+        <v>99.5050048828125</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2076,7 +2076,7 @@
         <v>5973</v>
       </c>
       <c r="B212">
-        <v>95.51069641113281</v>
+        <v>99.49710083007812</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2084,7 +2084,7 @@
         <v>5973.5</v>
       </c>
       <c r="B213">
-        <v>93.00764465332031</v>
+        <v>97.35044097900391</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>5974</v>
       </c>
       <c r="B214">
-        <v>92.88876342773438</v>
+        <v>97.23155975341797</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>5974.5</v>
       </c>
       <c r="B215">
-        <v>95.14323425292969</v>
+        <v>98.92078399658203</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>5975</v>
       </c>
       <c r="B216">
-        <v>96.56413269042969</v>
+        <v>100.8015518188477</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>5975.5</v>
       </c>
       <c r="B217">
-        <v>96.56413269042969</v>
+        <v>100.8015518188477</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>5976</v>
       </c>
       <c r="B218">
-        <v>96.56413269042969</v>
+        <v>100.9774856567383</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>5976.5</v>
       </c>
       <c r="B219">
-        <v>96.56413269042969</v>
+        <v>100.5176162719727</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>5977</v>
       </c>
       <c r="B220">
-        <v>96.44525146484375</v>
+        <v>100.8586044311523</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>5977.5</v>
       </c>
       <c r="B221">
-        <v>96.56413269042969</v>
+        <v>100.6076202392578</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -34836,7 +34836,7 @@
         <v>8020.5</v>
       </c>
       <c r="B4307">
-        <v>178.0118255615234</v>
+        <v>178.5352935791016</v>
       </c>
     </row>
     <row r="4308" spans="1:2">
@@ -34844,7 +34844,7 @@
         <v>8021</v>
       </c>
       <c r="B4308">
-        <v>175.5722808837891</v>
+        <v>182.0372924804688</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34852,7 +34852,7 @@
         <v>8021.5</v>
       </c>
       <c r="B4309">
-        <v>167.7877044677734</v>
+        <v>174.2527160644531</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34860,7 +34860,7 @@
         <v>8022</v>
       </c>
       <c r="B4310">
-        <v>159.7070770263672</v>
+        <v>171.6685638427734</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -34868,7 +34868,7 @@
         <v>8022.5</v>
       </c>
       <c r="B4311">
-        <v>152.8021545410156</v>
+        <v>159.8630065917969</v>
       </c>
     </row>
     <row r="4312" spans="1:2">
@@ -34876,7 +34876,7 @@
         <v>8023</v>
       </c>
       <c r="B4312">
-        <v>148.1735382080078</v>
+        <v>153.5554046630859</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -34884,7 +34884,7 @@
         <v>8023.5</v>
       </c>
       <c r="B4313">
-        <v>138.0476531982422</v>
+        <v>142.1144714355469</v>
       </c>
     </row>
     <row r="4314" spans="1:2">
@@ -34892,7 +34892,7 @@
         <v>8024</v>
       </c>
       <c r="B4314">
-        <v>133.973876953125</v>
+        <v>138.6056365966797</v>
       </c>
     </row>
     <row r="4315" spans="1:2">
@@ -34900,7 +34900,7 @@
         <v>8024.5</v>
       </c>
       <c r="B4315">
-        <v>131.4553680419922</v>
+        <v>139.1135406494141</v>
       </c>
     </row>
     <row r="4316" spans="1:2">
@@ -34908,7 +34908,7 @@
         <v>8025</v>
       </c>
       <c r="B4316">
-        <v>129.9877014160156</v>
+        <v>137.6458740234375</v>
       </c>
     </row>
     <row r="4317" spans="1:2">
@@ -34916,7 +34916,7 @@
         <v>8025.5</v>
       </c>
       <c r="B4317">
-        <v>122.9849624633789</v>
+        <v>128.3073425292969</v>
       </c>
     </row>
     <row r="4318" spans="1:2">
@@ -34924,7 +34924,7 @@
         <v>8026</v>
       </c>
       <c r="B4318">
-        <v>134.4078826904297</v>
+        <v>144.1505584716797</v>
       </c>
     </row>
     <row r="4319" spans="1:2">
@@ -34932,7 +34932,7 @@
         <v>8026.5</v>
       </c>
       <c r="B4319">
-        <v>146.7575073242188</v>
+        <v>155.7326202392578</v>
       </c>
     </row>
     <row r="4320" spans="1:2">
@@ -34940,7 +34940,7 @@
         <v>8027</v>
       </c>
       <c r="B4320">
-        <v>140.9231109619141</v>
+        <v>156.1504821777344</v>
       </c>
     </row>
     <row r="4321" spans="1:2">
@@ -34948,7 +34948,7 @@
         <v>8027.5</v>
       </c>
       <c r="B4321">
-        <v>139.6370239257812</v>
+        <v>151.1418304443359</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34956,7 +34956,7 @@
         <v>8028</v>
       </c>
       <c r="B4322">
-        <v>138.6146697998047</v>
+        <v>148.7019805908203</v>
       </c>
     </row>
     <row r="4323" spans="1:2">
@@ -34964,7 +34964,7 @@
         <v>8028.5</v>
       </c>
       <c r="B4323">
-        <v>146.1428375244141</v>
+        <v>156.2301483154297</v>
       </c>
     </row>
     <row r="4324" spans="1:2">
@@ -34972,7 +34972,7 @@
         <v>8029</v>
       </c>
       <c r="B4324">
-        <v>146.0003662109375</v>
+        <v>156.0876770019531</v>
       </c>
     </row>
     <row r="4325" spans="1:2">
@@ -34980,7 +34980,7 @@
         <v>8029.5</v>
       </c>
       <c r="B4325">
-        <v>149.2337341308594</v>
+        <v>156.2301483154297</v>
       </c>
     </row>
     <row r="4326" spans="1:2">
@@ -34988,7 +34988,7 @@
         <v>8030</v>
       </c>
       <c r="B4326">
-        <v>151.961669921875</v>
+        <v>158.9580841064453</v>
       </c>
     </row>
     <row r="4327" spans="1:2">
@@ -34996,7 +34996,7 @@
         <v>8030.5</v>
       </c>
       <c r="B4327">
-        <v>147.7590484619141</v>
+        <v>157.8463592529297</v>
       </c>
     </row>
     <row r="4328" spans="1:2">
@@ -35004,7 +35004,7 @@
         <v>8031</v>
       </c>
       <c r="B4328">
-        <v>146.6051177978516</v>
+        <v>156.6924285888672</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35012,7 +35012,7 @@
         <v>8031.5</v>
       </c>
       <c r="B4329">
-        <v>156.5266723632812</v>
+        <v>165.8713684082031</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35020,7 +35020,7 @@
         <v>8032</v>
       </c>
       <c r="B4330">
-        <v>162.0673522949219</v>
+        <v>171.4120483398438</v>
       </c>
     </row>
     <row r="4331" spans="1:2">
@@ -35028,7 +35028,7 @@
         <v>8032.5</v>
       </c>
       <c r="B4331">
-        <v>167.2177429199219</v>
+        <v>169.5945892333984</v>
       </c>
     </row>
     <row r="4332" spans="1:2">
@@ -35036,7 +35036,7 @@
         <v>8033</v>
       </c>
       <c r="B4332">
-        <v>178.6233520507812</v>
+        <v>181.5866241455078</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35044,7 +35044,7 @@
         <v>8033.5</v>
       </c>
       <c r="B4333">
-        <v>175.7432861328125</v>
+        <v>179.9535369873047</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35052,7 +35052,7 @@
         <v>8034</v>
       </c>
       <c r="B4334">
-        <v>173.4770355224609</v>
+        <v>179.8719329833984</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35060,7 +35060,7 @@
         <v>8034.5</v>
       </c>
       <c r="B4335">
-        <v>173.553955078125</v>
+        <v>177.8286437988281</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35068,7 +35068,7 @@
         <v>8035</v>
       </c>
       <c r="B4336">
-        <v>180.1350555419922</v>
+        <v>179.6416931152344</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35076,7 +35076,7 @@
         <v>8035.5</v>
       </c>
       <c r="B4337">
-        <v>180.1950073242188</v>
+        <v>181.8919677734375</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35084,7 +35084,7 @@
         <v>8036</v>
       </c>
       <c r="B4338">
-        <v>173.8972930908203</v>
+        <v>174.0341949462891</v>
       </c>
     </row>
     <row r="4339" spans="1:2">
@@ -35092,7 +35092,7 @@
         <v>8036.5</v>
       </c>
       <c r="B4339">
-        <v>170.1940307617188</v>
+        <v>177.3874664306641</v>
       </c>
     </row>
     <row r="4340" spans="1:2">
@@ -35100,7 +35100,7 @@
         <v>8037</v>
       </c>
       <c r="B4340">
-        <v>170.8969116210938</v>
+        <v>177.9030914306641</v>
       </c>
     </row>
     <row r="4341" spans="1:2">
@@ -35108,7 +35108,7 @@
         <v>8037.5</v>
       </c>
       <c r="B4341">
-        <v>176.0903472900391</v>
+        <v>177.6000518798828</v>
       </c>
     </row>
     <row r="4342" spans="1:2">
@@ -35116,7 +35116,7 @@
         <v>8038</v>
       </c>
       <c r="B4342">
-        <v>176.0903472900391</v>
+        <v>177.6000518798828</v>
       </c>
     </row>
     <row r="4343" spans="1:2">
@@ -35124,7 +35124,7 @@
         <v>8038.5</v>
       </c>
       <c r="B4343">
-        <v>170.7096557617188</v>
+        <v>176.0399932861328</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35132,7 +35132,7 @@
         <v>8039</v>
       </c>
       <c r="B4344">
-        <v>166.4126281738281</v>
+        <v>173.6060638427734</v>
       </c>
     </row>
     <row r="4345" spans="1:2">
@@ -35140,7 +35140,7 @@
         <v>8039.5</v>
       </c>
       <c r="B4345">
-        <v>166.4126281738281</v>
+        <v>173.6060638427734</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35148,7 +35148,7 @@
         <v>8040</v>
       </c>
       <c r="B4346">
-        <v>166.4126281738281</v>
+        <v>173.6060638427734</v>
       </c>
     </row>
     <row r="4347" spans="1:2">
@@ -35156,7 +35156,7 @@
         <v>8040.5</v>
       </c>
       <c r="B4347">
-        <v>167.8224639892578</v>
+        <v>175.0158996582031</v>
       </c>
     </row>
     <row r="4348" spans="1:2">
@@ -35164,7 +35164,7 @@
         <v>8041</v>
       </c>
       <c r="B4348">
-        <v>172.6455230712891</v>
+        <v>173.022216796875</v>
       </c>
     </row>
     <row r="4349" spans="1:2">
@@ -35172,7 +35172,7 @@
         <v>8041.5</v>
       </c>
       <c r="B4349">
-        <v>171.6592864990234</v>
+        <v>173.022216796875</v>
       </c>
     </row>
     <row r="4350" spans="1:2">
@@ -35180,7 +35180,7 @@
         <v>8042</v>
       </c>
       <c r="B4350">
-        <v>168.0097198486328</v>
+        <v>175.0158996582031</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35188,7 +35188,7 @@
         <v>8042.5</v>
       </c>
       <c r="B4351">
-        <v>176.0903472900391</v>
+        <v>176.0399932861328</v>
       </c>
     </row>
     <row r="4352" spans="1:2">
@@ -35196,7 +35196,7 @@
         <v>8043</v>
       </c>
       <c r="B4352">
-        <v>176.0903472900391</v>
+        <v>177.6000518798828</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35204,7 +35204,7 @@
         <v>8043.5</v>
       </c>
       <c r="B4353">
-        <v>175.9030914306641</v>
+        <v>177.6000518798828</v>
       </c>
     </row>
     <row r="4354" spans="1:2">
@@ -35212,7 +35212,7 @@
         <v>8044</v>
       </c>
       <c r="B4354">
-        <v>170.7096557617188</v>
+        <v>177.6000518798828</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35220,7 +35220,7 @@
         <v>8044.5</v>
       </c>
       <c r="B4355">
-        <v>167.8224639892578</v>
+        <v>175.0158996582031</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35228,7 +35228,7 @@
         <v>8045</v>
       </c>
       <c r="B4356">
-        <v>168.0097198486328</v>
+        <v>175.0158996582031</v>
       </c>
     </row>
     <row r="4357" spans="1:2">
@@ -35236,7 +35236,7 @@
         <v>8045.5</v>
       </c>
       <c r="B4357">
-        <v>168.0097198486328</v>
+        <v>175.0158996582031</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35244,7 +35244,7 @@
         <v>8046</v>
       </c>
       <c r="B4358">
-        <v>168.0097198486328</v>
+        <v>175.0158996582031</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35252,7 +35252,7 @@
         <v>8046.5</v>
       </c>
       <c r="B4359">
-        <v>167.8224639892578</v>
+        <v>174.297119140625</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35260,7 +35260,7 @@
         <v>8047</v>
       </c>
       <c r="B4360">
-        <v>167.3773040771484</v>
+        <v>173.1325531005859</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -35268,7 +35268,7 @@
         <v>8047.5</v>
       </c>
       <c r="B4361">
-        <v>168.0097198486328</v>
+        <v>175.0158996582031</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35276,7 +35276,7 @@
         <v>8048</v>
       </c>
       <c r="B4362">
-        <v>163.0544128417969</v>
+        <v>175.0158996582031</v>
       </c>
     </row>
     <row r="4363" spans="1:2">
@@ -35284,7 +35284,7 @@
         <v>8048.5</v>
       </c>
       <c r="B4363">
-        <v>158.2028503417969</v>
+        <v>170.1643371582031</v>
       </c>
     </row>
     <row r="4364" spans="1:2">
@@ -35292,7 +35292,7 @@
         <v>8049</v>
       </c>
       <c r="B4364">
-        <v>158.2028503417969</v>
+        <v>169.445556640625</v>
       </c>
     </row>
     <row r="4365" spans="1:2">
@@ -35300,7 +35300,7 @@
         <v>8049.5</v>
       </c>
       <c r="B4365">
-        <v>159.7070770263672</v>
+        <v>171.6685638427734</v>
       </c>
     </row>
     <row r="4366" spans="1:2">
@@ -35308,7 +35308,7 @@
         <v>8050</v>
       </c>
       <c r="B4366">
-        <v>167.7877044677734</v>
+        <v>174.2527160644531</v>
       </c>
     </row>
     <row r="4367" spans="1:2">
@@ -35316,7 +35316,7 @@
         <v>8050.5</v>
       </c>
       <c r="B4367">
-        <v>166.3479156494141</v>
+        <v>171.1884307861328</v>
       </c>
     </row>
     <row r="4368" spans="1:2">
@@ -35324,7 +35324,7 @@
         <v>8051</v>
       </c>
       <c r="B4368">
-        <v>158.2672882080078</v>
+        <v>170.1643371582031</v>
       </c>
     </row>
     <row r="4369" spans="1:2">
@@ -35332,7 +35332,7 @@
         <v>8051.5</v>
       </c>
       <c r="B4369">
-        <v>154.1163940429688</v>
+        <v>161.17724609375</v>
       </c>
     </row>
     <row r="4370" spans="1:2">
@@ -35340,7 +35340,7 @@
         <v>8052</v>
       </c>
       <c r="B4370">
-        <v>150.6735229492188</v>
+        <v>157.734375</v>
       </c>
     </row>
     <row r="4371" spans="1:2">
@@ -35348,7 +35348,7 @@
         <v>8052.5</v>
       </c>
       <c r="B4371">
-        <v>156.6150665283203</v>
+        <v>157.734375</v>
       </c>
     </row>
     <row r="4372" spans="1:2">
@@ -35356,7 +35356,7 @@
         <v>8053</v>
       </c>
       <c r="B4372">
-        <v>155.6288299560547</v>
+        <v>157.734375</v>
       </c>
     </row>
     <row r="4373" spans="1:2">
@@ -35364,7 +35364,7 @@
         <v>8053.5</v>
       </c>
       <c r="B4373">
-        <v>155.4863586425781</v>
+        <v>157.5919036865234</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35372,7 +35372,7 @@
         <v>8054</v>
       </c>
       <c r="B4374">
-        <v>163.7596435546875</v>
+        <v>165.3098297119141</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
@@ -35380,7 +35380,7 @@
         <v>8054.5</v>
       </c>
       <c r="B4375">
-        <v>160.388671875</v>
+        <v>162.6814727783203</v>
       </c>
     </row>
     <row r="4376" spans="1:2">
@@ -35388,7 +35388,7 @@
         <v>8055</v>
       </c>
       <c r="B4376">
-        <v>156.0375366210938</v>
+        <v>158.3303375244141</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
@@ -35396,7 +35396,7 @@
         <v>8055.5</v>
       </c>
       <c r="B4377">
-        <v>149.9966583251953</v>
+        <v>152.2894592285156</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35404,7 +35404,7 @@
         <v>8056</v>
       </c>
       <c r="B4378">
-        <v>150.8712158203125</v>
+        <v>152.2282562255859</v>
       </c>
     </row>
     <row r="4379" spans="1:2">
@@ -35412,7 +35412,7 @@
         <v>8056.5</v>
       </c>
       <c r="B4379">
-        <v>140.3290100097656</v>
+        <v>141.6744537353516</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35420,7 +35420,7 @@
         <v>8057</v>
       </c>
       <c r="B4380">
-        <v>129.8235321044922</v>
+        <v>134.4552612304688</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35428,7 +35428,7 @@
         <v>8057.5</v>
       </c>
       <c r="B4381">
-        <v>125.0037155151367</v>
+        <v>129.6354522705078</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35436,7 +35436,7 @@
         <v>8058</v>
       </c>
       <c r="B4382">
-        <v>124.0822219848633</v>
+        <v>131.1710205078125</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35444,7 +35444,7 @@
         <v>8058.5</v>
       </c>
       <c r="B4383">
-        <v>127.7898635864258</v>
+        <v>131.1710205078125</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35452,7 +35452,7 @@
         <v>8059</v>
       </c>
       <c r="B4384">
-        <v>127.7251205444336</v>
+        <v>129.6354522705078</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35460,7 +35460,7 @@
         <v>8059.5</v>
       </c>
       <c r="B4385">
-        <v>128.4248199462891</v>
+        <v>129.3489074707031</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35468,7 +35468,7 @@
         <v>8060</v>
       </c>
       <c r="B4386">
-        <v>125.0037155151367</v>
+        <v>129.6354522705078</v>
       </c>
     </row>
     <row r="4387" spans="1:2">
@@ -35476,7 +35476,7 @@
         <v>8060.5</v>
       </c>
       <c r="B4387">
-        <v>122.2785110473633</v>
+        <v>129.6732177734375</v>
       </c>
     </row>
     <row r="4388" spans="1:2">
@@ -35484,7 +35484,7 @@
         <v>8061</v>
       </c>
       <c r="B4388">
-        <v>124.4104385375977</v>
+        <v>128.0975341796875</v>
       </c>
     </row>
     <row r="4389" spans="1:2">
@@ -35492,7 +35492,7 @@
         <v>8061.5</v>
       </c>
       <c r="B4389">
-        <v>119.9579238891602</v>
+        <v>122.6905670166016</v>
       </c>
     </row>
     <row r="4390" spans="1:2">
@@ -35500,7 +35500,7 @@
         <v>8062</v>
       </c>
       <c r="B4390">
-        <v>119.9579238891602</v>
+        <v>122.6905670166016</v>
       </c>
     </row>
     <row r="4391" spans="1:2">
@@ -35508,7 +35508,7 @@
         <v>8062.5</v>
       </c>
       <c r="B4391">
-        <v>117.2365341186523</v>
+        <v>122.6905670166016</v>
       </c>
     </row>
     <row r="4392" spans="1:2">
@@ -35516,7 +35516,7 @@
         <v>8063</v>
       </c>
       <c r="B4392">
-        <v>117.2365341186523</v>
+        <v>122.6905670166016</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35524,7 +35524,7 @@
         <v>8063.5</v>
       </c>
       <c r="B4393">
-        <v>116.8689651489258</v>
+        <v>119.8659515380859</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35532,7 +35532,7 @@
         <v>8064</v>
       </c>
       <c r="B4394">
-        <v>122.0934829711914</v>
+        <v>125.7805480957031</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
@@ -35540,7 +35540,7 @@
         <v>8064.5</v>
       </c>
       <c r="B4395">
-        <v>123.8122253417969</v>
+        <v>128.4855346679688</v>
       </c>
     </row>
     <row r="4396" spans="1:2">
@@ -35548,7 +35548,7 @@
         <v>8065</v>
       </c>
       <c r="B4396">
-        <v>124.4104385375977</v>
+        <v>128.0975341796875</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35556,7 +35556,7 @@
         <v>8065.5</v>
       </c>
       <c r="B4397">
-        <v>116.4631652832031</v>
+        <v>124.9436569213867</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35564,7 +35564,7 @@
         <v>8066</v>
       </c>
       <c r="B4398">
-        <v>112.2665023803711</v>
+        <v>125.0602188110352</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35572,7 +35572,7 @@
         <v>8066.5</v>
       </c>
       <c r="B4399">
-        <v>116.253532409668</v>
+        <v>126.6649856567383</v>
       </c>
     </row>
     <row r="4400" spans="1:2">
@@ -35580,7 +35580,7 @@
         <v>8067</v>
       </c>
       <c r="B4400">
-        <v>111.8122940063477</v>
+        <v>117.826057434082</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35588,7 +35588,7 @@
         <v>8067.5</v>
       </c>
       <c r="B4401">
-        <v>100.5204467773438</v>
+        <v>110.738037109375</v>
       </c>
     </row>
     <row r="4402" spans="1:2">
@@ -35596,7 +35596,7 @@
         <v>8068</v>
       </c>
       <c r="B4402">
-        <v>96.73370361328125</v>
+        <v>109.3291931152344</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35604,7 +35604,7 @@
         <v>8068.5</v>
       </c>
       <c r="B4403">
-        <v>87.60777282714844</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35612,7 +35612,7 @@
         <v>8069</v>
       </c>
       <c r="B4404">
-        <v>94.20890808105469</v>
+        <v>104.463623046875</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35620,7 +35620,7 @@
         <v>8069.5</v>
       </c>
       <c r="B4405">
-        <v>92.98567199707031</v>
+        <v>103.2403869628906</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35628,7 +35628,7 @@
         <v>8070</v>
       </c>
       <c r="B4406">
-        <v>97.65818786621094</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35636,7 +35636,7 @@
         <v>8070.5</v>
       </c>
       <c r="B4407">
-        <v>91.80821990966797</v>
+        <v>103.0587844848633</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
@@ -35644,7 +35644,7 @@
         <v>8071</v>
       </c>
       <c r="B4408">
-        <v>91.39997863769531</v>
+        <v>98.41492462158203</v>
       </c>
     </row>
     <row r="4409" spans="1:2">
@@ -35652,7 +35652,7 @@
         <v>8071.5</v>
       </c>
       <c r="B4409">
-        <v>87.33486938476562</v>
+        <v>96.99920654296875</v>
       </c>
     </row>
     <row r="4410" spans="1:2">
@@ -35660,7 +35660,7 @@
         <v>8072</v>
       </c>
       <c r="B4410">
-        <v>86.23089599609375</v>
+        <v>96.7572021484375</v>
       </c>
     </row>
     <row r="4411" spans="1:2">
@@ -35668,7 +35668,7 @@
         <v>8072.5</v>
       </c>
       <c r="B4411">
-        <v>93.47171020507812</v>
+        <v>102.1293792724609</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35676,7 +35676,7 @@
         <v>8073</v>
       </c>
       <c r="B4412">
-        <v>93.98391723632812</v>
+        <v>104.0279846191406</v>
       </c>
     </row>
     <row r="4413" spans="1:2">
@@ -35684,7 +35684,7 @@
         <v>8073.5</v>
       </c>
       <c r="B4413">
-        <v>95.36949920654297</v>
+        <v>102.1641159057617</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35692,7 +35692,7 @@
         <v>8074</v>
       </c>
       <c r="B4414">
-        <v>93.47171020507812</v>
+        <v>102.1293792724609</v>
       </c>
     </row>
     <row r="4415" spans="1:2">
@@ -35700,7 +35700,7 @@
         <v>8074.5</v>
       </c>
       <c r="B4415">
-        <v>94.46832275390625</v>
+        <v>104.5123748779297</v>
       </c>
     </row>
     <row r="4416" spans="1:2">
@@ -35708,7 +35708,7 @@
         <v>8075</v>
       </c>
       <c r="B4416">
-        <v>97.77975463867188</v>
+        <v>107.7823333740234</v>
       </c>
     </row>
     <row r="4417" spans="1:2">
@@ -35716,7 +35716,7 @@
         <v>8075.5</v>
       </c>
       <c r="B4417">
-        <v>97.86883544921875</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35724,7 +35724,7 @@
         <v>8076</v>
       </c>
       <c r="B4418">
-        <v>94.18080902099609</v>
+        <v>102.8384780883789</v>
       </c>
     </row>
     <row r="4419" spans="1:2">
@@ -35732,7 +35732,7 @@
         <v>8076.5</v>
       </c>
       <c r="B4419">
-        <v>93.15231323242188</v>
+        <v>99.94692993164062</v>
       </c>
     </row>
     <row r="4420" spans="1:2">
@@ -35740,7 +35740,7 @@
         <v>8077</v>
       </c>
       <c r="B4420">
-        <v>94.20948028564453</v>
+        <v>101.8756484985352</v>
       </c>
     </row>
     <row r="4421" spans="1:2">
@@ -35748,7 +35748,7 @@
         <v>8077.5</v>
       </c>
       <c r="B4421">
-        <v>94.4195556640625</v>
+        <v>104.463623046875</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35756,7 +35756,7 @@
         <v>8078</v>
       </c>
       <c r="B4422">
-        <v>97.65818786621094</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4423" spans="1:2">
@@ -35764,7 +35764,7 @@
         <v>8078.5</v>
       </c>
       <c r="B4423">
-        <v>99.06874084472656</v>
+        <v>107.470085144043</v>
       </c>
     </row>
     <row r="4424" spans="1:2">
@@ -35772,7 +35772,7 @@
         <v>8079</v>
       </c>
       <c r="B4424">
-        <v>103.2571640014648</v>
+        <v>110.4536285400391</v>
       </c>
     </row>
     <row r="4425" spans="1:2">
@@ -35780,7 +35780,7 @@
         <v>8079.5</v>
       </c>
       <c r="B4425">
-        <v>109.2367553710938</v>
+        <v>111.3339309692383</v>
       </c>
     </row>
     <row r="4426" spans="1:2">
@@ -35788,7 +35788,7 @@
         <v>8080</v>
       </c>
       <c r="B4426">
-        <v>112.3970794677734</v>
+        <v>113.5080184936523</v>
       </c>
     </row>
     <row r="4427" spans="1:2">
@@ -35796,7 +35796,7 @@
         <v>8080.5</v>
       </c>
       <c r="B4427">
-        <v>113.5209350585938</v>
+        <v>116.453483581543</v>
       </c>
     </row>
     <row r="4428" spans="1:2">
@@ -35804,7 +35804,7 @@
         <v>8081</v>
       </c>
       <c r="B4428">
-        <v>109.031623840332</v>
+        <v>117.4276351928711</v>
       </c>
     </row>
     <row r="4429" spans="1:2">
@@ -35812,7 +35812,7 @@
         <v>8081.5</v>
       </c>
       <c r="B4429">
-        <v>108.9922180175781</v>
+        <v>114.7953338623047</v>
       </c>
     </row>
     <row r="4430" spans="1:2">
@@ -35820,7 +35820,7 @@
         <v>8082</v>
       </c>
       <c r="B4430">
-        <v>99.50675964355469</v>
+        <v>109.5093536376953</v>
       </c>
     </row>
     <row r="4431" spans="1:2">
@@ -35828,7 +35828,7 @@
         <v>8082.5</v>
       </c>
       <c r="B4431">
-        <v>92.64161682128906</v>
+        <v>102.6856842041016</v>
       </c>
     </row>
     <row r="4432" spans="1:2">
@@ -35836,7 +35836,7 @@
         <v>8083</v>
       </c>
       <c r="B4432">
-        <v>91.91099548339844</v>
+        <v>98.70560455322266</v>
       </c>
     </row>
     <row r="4433" spans="1:2">
@@ -35844,7 +35844,7 @@
         <v>8083.5</v>
       </c>
       <c r="B4433">
-        <v>91.38043212890625</v>
+        <v>98.17504119873047</v>
       </c>
     </row>
     <row r="4434" spans="1:2">
@@ -35852,7 +35852,7 @@
         <v>8084</v>
       </c>
       <c r="B4434">
-        <v>92.27142333984375</v>
+        <v>99.06603240966797</v>
       </c>
     </row>
     <row r="4435" spans="1:2">
@@ -35860,7 +35860,7 @@
         <v>8084.5</v>
       </c>
       <c r="B4435">
-        <v>93.09909820556641</v>
+        <v>101.7567672729492</v>
       </c>
     </row>
     <row r="4436" spans="1:2">
@@ -35868,7 +35868,7 @@
         <v>8085</v>
       </c>
       <c r="B4436">
-        <v>97.86883544921875</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4437" spans="1:2">
@@ -35876,7 +35876,7 @@
         <v>8085.5</v>
       </c>
       <c r="B4437">
-        <v>99.32659912109375</v>
+        <v>109.3291931152344</v>
       </c>
     </row>
     <row r="4438" spans="1:2">
@@ -35884,7 +35884,7 @@
         <v>8086</v>
       </c>
       <c r="B4438">
-        <v>102.6534423828125</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4439" spans="1:2">
@@ -35892,7 +35892,7 @@
         <v>8086.5</v>
       </c>
       <c r="B4439">
-        <v>102.4427947998047</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4440" spans="1:2">
@@ -35900,7 +35900,7 @@
         <v>8087</v>
       </c>
       <c r="B4440">
-        <v>97.18122863769531</v>
+        <v>109.7767181396484</v>
       </c>
     </row>
     <row r="4441" spans="1:2">
@@ -35908,7 +35908,7 @@
         <v>8087.5</v>
       </c>
       <c r="B4441">
-        <v>102.4427947998047</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4442" spans="1:2">
@@ -35916,7 +35916,7 @@
         <v>8088</v>
       </c>
       <c r="B4442">
-        <v>102.4427947998047</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4443" spans="1:2">
@@ -35924,7 +35924,7 @@
         <v>8088.5</v>
       </c>
       <c r="B4443">
-        <v>102.8847961425781</v>
+        <v>110.5094909667969</v>
       </c>
     </row>
     <row r="4444" spans="1:2">
@@ -35932,7 +35932,7 @@
         <v>8089</v>
       </c>
       <c r="B4444">
-        <v>102.6534423828125</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
@@ -35940,7 +35940,7 @@
         <v>8089.5</v>
       </c>
       <c r="B4445">
-        <v>99.11595153808594</v>
+        <v>109.3291931152344</v>
       </c>
     </row>
     <row r="4446" spans="1:2">
@@ -35948,7 +35948,7 @@
         <v>8090</v>
       </c>
       <c r="B4446">
-        <v>96.49360656738281</v>
+        <v>106.7068481445312</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -35956,7 +35956,7 @@
         <v>8090.5</v>
       </c>
       <c r="B4447">
-        <v>96.49360656738281</v>
+        <v>106.7068481445312</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
@@ -35964,7 +35964,7 @@
         <v>8091</v>
       </c>
       <c r="B4448">
-        <v>99.11595153808594</v>
+        <v>109.3291931152344</v>
       </c>
     </row>
     <row r="4449" spans="1:2">
@@ -35972,7 +35972,7 @@
         <v>8091.5</v>
       </c>
       <c r="B4449">
-        <v>102.6534423828125</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4450" spans="1:2">
@@ -35980,7 +35980,7 @@
         <v>8092</v>
       </c>
       <c r="B4450">
-        <v>102.6534423828125</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -35988,7 +35988,7 @@
         <v>8092.5</v>
       </c>
       <c r="B4451">
-        <v>97.86883544921875</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35996,7 +35996,7 @@
         <v>8093</v>
       </c>
       <c r="B4452">
-        <v>93.98391723632812</v>
+        <v>104.0279846191406</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -36004,7 +36004,7 @@
         <v>8093.5</v>
       </c>
       <c r="B4453">
-        <v>95.51149749755859</v>
+        <v>103.1776657104492</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -36012,7 +36012,7 @@
         <v>8094</v>
       </c>
       <c r="B4454">
-        <v>95.51149749755859</v>
+        <v>103.1776657104492</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36020,7 +36020,7 @@
         <v>8094.5</v>
       </c>
       <c r="B4455">
-        <v>95.51149749755859</v>
+        <v>103.1776657104492</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36028,7 +36028,7 @@
         <v>8095</v>
       </c>
       <c r="B4456">
-        <v>95.51149749755859</v>
+        <v>103.1776657104492</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36036,7 +36036,7 @@
         <v>8095.5</v>
       </c>
       <c r="B4457">
-        <v>95.51149749755859</v>
+        <v>103.1776657104492</v>
       </c>
     </row>
     <row r="4458" spans="1:2">
@@ -36044,7 +36044,7 @@
         <v>8096</v>
       </c>
       <c r="B4458">
-        <v>93.98391723632812</v>
+        <v>104.0279846191406</v>
       </c>
     </row>
     <row r="4459" spans="1:2">
@@ -36052,7 +36052,7 @@
         <v>8096.5</v>
       </c>
       <c r="B4459">
-        <v>94.4195556640625</v>
+        <v>104.463623046875</v>
       </c>
     </row>
     <row r="4460" spans="1:2">
@@ -36060,7 +36060,7 @@
         <v>8097</v>
       </c>
       <c r="B4460">
-        <v>97.86883544921875</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4461" spans="1:2">
@@ -36068,7 +36068,7 @@
         <v>8097.5</v>
       </c>
       <c r="B4461">
-        <v>96.49360656738281</v>
+        <v>106.7068481445312</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36076,7 +36076,7 @@
         <v>8098</v>
       </c>
       <c r="B4462">
-        <v>97.65818786621094</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4463" spans="1:2">
@@ -36084,7 +36084,7 @@
         <v>8098.5</v>
       </c>
       <c r="B4463">
-        <v>97.65818786621094</v>
+        <v>106.0498504638672</v>
       </c>
     </row>
     <row r="4464" spans="1:2">
@@ -36092,7 +36092,7 @@
         <v>8099</v>
       </c>
       <c r="B4464">
-        <v>94.20890808105469</v>
+        <v>104.463623046875</v>
       </c>
     </row>
     <row r="4465" spans="1:2">
@@ -36100,7 +36100,7 @@
         <v>8099.5</v>
       </c>
       <c r="B4465">
-        <v>94.19046783447266</v>
+        <v>103.0587844848633</v>
       </c>
     </row>
     <row r="4466" spans="1:2">
@@ -36108,7 +36108,7 @@
         <v>8100</v>
       </c>
       <c r="B4466">
-        <v>84.17903137207031</v>
+        <v>101.2347106933594</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36116,7 +36116,7 @@
         <v>8100.5</v>
       </c>
       <c r="B4467">
-        <v>94.22944641113281</v>
+        <v>101.2347106933594</v>
       </c>
     </row>
     <row r="4468" spans="1:2">
@@ -36124,7 +36124,7 @@
         <v>8101</v>
       </c>
       <c r="B4468">
-        <v>94.44009399414062</v>
+        <v>101.2347106933594</v>
       </c>
     </row>
     <row r="4469" spans="1:2">
@@ -36132,7 +36132,7 @@
         <v>8101.5</v>
       </c>
       <c r="B4469">
-        <v>94.44009399414062</v>
+        <v>101.2347106933594</v>
       </c>
     </row>
     <row r="4470" spans="1:2">
@@ -36140,7 +36140,7 @@
         <v>8102</v>
       </c>
       <c r="B4470">
-        <v>94.44009399414062</v>
+        <v>101.2347106933594</v>
       </c>
     </row>
     <row r="4471" spans="1:2">
@@ -36148,7 +36148,7 @@
         <v>8102.5</v>
       </c>
       <c r="B4471">
-        <v>93.98391723632812</v>
+        <v>104.0279846191406</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36156,7 +36156,7 @@
         <v>8103</v>
       </c>
       <c r="B4472">
-        <v>94.46832275390625</v>
+        <v>104.5123748779297</v>
       </c>
     </row>
     <row r="4473" spans="1:2">
@@ -36164,7 +36164,7 @@
         <v>8103.5</v>
       </c>
       <c r="B4473">
-        <v>93.52252197265625</v>
+        <v>103.5665893554688</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36172,7 +36172,7 @@
         <v>8104</v>
       </c>
       <c r="B4474">
-        <v>92.43155670166016</v>
+        <v>100.0977172851562</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36180,7 +36180,7 @@
         <v>8104.5</v>
       </c>
       <c r="B4475">
-        <v>91.91099548339844</v>
+        <v>98.70560455322266</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36188,7 +36188,7 @@
         <v>8105</v>
       </c>
       <c r="B4476">
-        <v>91.70588684082031</v>
+        <v>98.50049591064453</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36196,7 +36196,7 @@
         <v>8105.5</v>
       </c>
       <c r="B4477">
-        <v>88.83395385742188</v>
+        <v>99.14960479736328</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36204,7 +36204,7 @@
         <v>8106</v>
       </c>
       <c r="B4478">
-        <v>87.24089050292969</v>
+        <v>97.55654907226562</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36212,7 +36212,7 @@
         <v>8106.5</v>
       </c>
       <c r="B4479">
-        <v>87.24089050292969</v>
+        <v>97.55654907226562</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
@@ -36220,7 +36220,7 @@
         <v>8107</v>
       </c>
       <c r="B4480">
-        <v>87.24089050292969</v>
+        <v>97.55654907226562</v>
       </c>
     </row>
     <row r="4481" spans="1:2">
@@ -36228,7 +36228,7 @@
         <v>8107.5</v>
       </c>
       <c r="B4481">
-        <v>84.57205200195312</v>
+        <v>94.88771057128906</v>
       </c>
     </row>
     <row r="4482" spans="1:2">
@@ -36236,7 +36236,7 @@
         <v>8108</v>
       </c>
       <c r="B4482">
-        <v>87.35650634765625</v>
+        <v>97.67216491699219</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36244,7 +36244,7 @@
         <v>8108.5</v>
       </c>
       <c r="B4483">
-        <v>93.15231323242188</v>
+        <v>99.94692993164062</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36252,7 +36252,7 @@
         <v>8109</v>
       </c>
       <c r="B4484">
-        <v>93.98391723632812</v>
+        <v>104.0279846191406</v>
       </c>
     </row>
     <row r="4485" spans="1:2">
@@ -36260,7 +36260,7 @@
         <v>8109.5</v>
       </c>
       <c r="B4485">
-        <v>96.70425415039062</v>
+        <v>106.7068481445312</v>
       </c>
     </row>
     <row r="4486" spans="1:2">
@@ -36268,7 +36268,7 @@
         <v>8110</v>
       </c>
       <c r="B4486">
-        <v>102.6534423828125</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4487" spans="1:2">
@@ -36276,7 +36276,7 @@
         <v>8110.5</v>
       </c>
       <c r="B4487">
-        <v>102.6534423828125</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4488" spans="1:2">
@@ -36284,7 +36284,7 @@
         <v>8111</v>
       </c>
       <c r="B4488">
-        <v>99.32659912109375</v>
+        <v>109.3291931152344</v>
       </c>
     </row>
     <row r="4489" spans="1:2">
@@ -36292,7 +36292,7 @@
         <v>8111.5</v>
       </c>
       <c r="B4489">
-        <v>102.6534423828125</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4490" spans="1:2">
@@ -36300,7 +36300,7 @@
         <v>8112</v>
       </c>
       <c r="B4490">
-        <v>103.0055847167969</v>
+        <v>110.8409271240234</v>
       </c>
     </row>
     <row r="4491" spans="1:2">
@@ -36308,7 +36308,7 @@
         <v>8112.5</v>
       </c>
       <c r="B4491">
-        <v>100.6233367919922</v>
+        <v>110.8409271240234</v>
       </c>
     </row>
     <row r="4492" spans="1:2">
@@ -36316,7 +36316,7 @@
         <v>8113</v>
       </c>
       <c r="B4492">
-        <v>100.060546875</v>
+        <v>110.2781372070312</v>
       </c>
     </row>
     <row r="4493" spans="1:2">
@@ -36324,7 +36324,7 @@
         <v>8113.5</v>
       </c>
       <c r="B4493">
-        <v>94.99650573730469</v>
+        <v>105.251220703125</v>
       </c>
     </row>
     <row r="4494" spans="1:2">
@@ -36332,7 +36332,7 @@
         <v>8114</v>
       </c>
       <c r="B4494">
-        <v>93.80271911621094</v>
+        <v>100.5973358154297</v>
       </c>
     </row>
     <row r="4495" spans="1:2">
@@ -36340,7 +36340,7 @@
         <v>8114.5</v>
       </c>
       <c r="B4495">
-        <v>94.69371032714844</v>
+        <v>101.4883270263672</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36348,7 +36348,7 @@
         <v>8115</v>
       </c>
       <c r="B4496">
-        <v>95.76511383056641</v>
+        <v>103.431282043457</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36356,7 +36356,7 @@
         <v>8115.5</v>
       </c>
       <c r="B4497">
-        <v>94.72193908691406</v>
+        <v>104.7659912109375</v>
       </c>
     </row>
     <row r="4498" spans="1:2">
@@ -36364,7 +36364,7 @@
         <v>8116</v>
       </c>
       <c r="B4498">
-        <v>101.3601989746094</v>
+        <v>108.9848937988281</v>
       </c>
     </row>
     <row r="4499" spans="1:2">
@@ -36372,7 +36372,7 @@
         <v>8116.5</v>
       </c>
       <c r="B4499">
-        <v>105.5410461425781</v>
+        <v>113.1657409667969</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36380,7 +36380,7 @@
         <v>8117</v>
       </c>
       <c r="B4500">
-        <v>103.4698486328125</v>
+        <v>111.0945434570312</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36388,7 +36388,7 @@
         <v>8117.5</v>
       </c>
       <c r="B4501">
-        <v>102.3524780273438</v>
+        <v>109.9771728515625</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36396,7 +36396,7 @@
         <v>8118</v>
       </c>
       <c r="B4502">
-        <v>105.8034210205078</v>
+        <v>113.4281158447266</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
@@ -36404,7 +36404,7 @@
         <v>8118.5</v>
       </c>
       <c r="B4503">
-        <v>106.0387878417969</v>
+        <v>113.6634826660156</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36412,7 +36412,7 @@
         <v>8119</v>
       </c>
       <c r="B4504">
-        <v>102.663818359375</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36420,7 +36420,7 @@
         <v>8119.5</v>
       </c>
       <c r="B4505">
-        <v>104.9703826904297</v>
+        <v>112.8057250976562</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
@@ -36428,7 +36428,7 @@
         <v>8120</v>
       </c>
       <c r="B4506">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4507" spans="1:2">
@@ -36436,7 +36436,7 @@
         <v>8120.5</v>
       </c>
       <c r="B4507">
-        <v>107.5038757324219</v>
+        <v>113.3069915771484</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36444,7 +36444,7 @@
         <v>8121</v>
       </c>
       <c r="B4508">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4509" spans="1:2">
@@ -36452,7 +36452,7 @@
         <v>8121.5</v>
       </c>
       <c r="B4509">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4510" spans="1:2">
@@ -36460,7 +36460,7 @@
         <v>8122</v>
       </c>
       <c r="B4510">
-        <v>101.8599853515625</v>
+        <v>109.4846801757812</v>
       </c>
     </row>
     <row r="4511" spans="1:2">
@@ -36468,7 +36468,7 @@
         <v>8122.5</v>
       </c>
       <c r="B4511">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4512" spans="1:2">
@@ -36476,7 +36476,7 @@
         <v>8123</v>
       </c>
       <c r="B4512">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4513" spans="1:2">
@@ -36484,7 +36484,7 @@
         <v>8123.5</v>
       </c>
       <c r="B4513">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36492,7 +36492,7 @@
         <v>8124</v>
       </c>
       <c r="B4514">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4515" spans="1:2">
@@ -36500,7 +36500,7 @@
         <v>8124.5</v>
       </c>
       <c r="B4515">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36508,7 +36508,7 @@
         <v>8125</v>
       </c>
       <c r="B4516">
-        <v>110.5276336669922</v>
+        <v>116.3307495117188</v>
       </c>
     </row>
     <row r="4517" spans="1:2">
@@ -36516,7 +36516,7 @@
         <v>8125.5</v>
       </c>
       <c r="B4517">
-        <v>109.6919937133789</v>
+        <v>115.4951095581055</v>
       </c>
     </row>
     <row r="4518" spans="1:2">
@@ -36524,7 +36524,7 @@
         <v>8126</v>
       </c>
       <c r="B4518">
-        <v>110.4355545043945</v>
+        <v>116.2386703491211</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36532,7 +36532,7 @@
         <v>8126.5</v>
       </c>
       <c r="B4519">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4520" spans="1:2">
@@ -36540,7 +36540,7 @@
         <v>8127</v>
       </c>
       <c r="B4520">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4521" spans="1:2">
@@ -36548,7 +36548,7 @@
         <v>8127.5</v>
       </c>
       <c r="B4521">
-        <v>107.7392425537109</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36556,7 +36556,7 @@
         <v>8128</v>
       </c>
       <c r="B4522">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36564,7 +36564,7 @@
         <v>8128.5</v>
       </c>
       <c r="B4523">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36572,7 +36572,7 @@
         <v>8129</v>
       </c>
       <c r="B4524">
-        <v>105.1810302734375</v>
+        <v>112.8057250976562</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36580,7 +36580,7 @@
         <v>8129.5</v>
       </c>
       <c r="B4525">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36588,7 +36588,7 @@
         <v>8130</v>
       </c>
       <c r="B4526">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36596,7 +36596,7 @@
         <v>8130.5</v>
       </c>
       <c r="B4527">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36604,7 +36604,7 @@
         <v>8131</v>
       </c>
       <c r="B4528">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36612,7 +36612,7 @@
         <v>8131.5</v>
       </c>
       <c r="B4529">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36620,7 +36620,7 @@
         <v>8132</v>
       </c>
       <c r="B4530">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4531" spans="1:2">
@@ -36628,7 +36628,7 @@
         <v>8132.5</v>
       </c>
       <c r="B4531">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4532" spans="1:2">
@@ -36636,7 +36636,7 @@
         <v>8133</v>
       </c>
       <c r="B4532">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4533" spans="1:2">
@@ -36644,7 +36644,7 @@
         <v>8133.5</v>
       </c>
       <c r="B4533">
-        <v>107.7392425537109</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36652,7 +36652,7 @@
         <v>8134</v>
       </c>
       <c r="B4534">
-        <v>102.7715759277344</v>
+        <v>110.3962707519531</v>
       </c>
     </row>
     <row r="4535" spans="1:2">
@@ -36660,7 +36660,7 @@
         <v>8134.5</v>
       </c>
       <c r="B4535">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4536" spans="1:2">
@@ -36668,7 +36668,7 @@
         <v>8135</v>
       </c>
       <c r="B4536">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4537" spans="1:2">
@@ -36676,7 +36676,7 @@
         <v>8135.5</v>
       </c>
       <c r="B4537">
-        <v>101.7570953369141</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4538" spans="1:2">
@@ -36684,7 +36684,7 @@
         <v>8136</v>
       </c>
       <c r="B4538">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4539" spans="1:2">
@@ -36692,7 +36692,7 @@
         <v>8136.5</v>
       </c>
       <c r="B4539">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4540" spans="1:2">
@@ -36700,7 +36700,7 @@
         <v>8137</v>
       </c>
       <c r="B4540">
-        <v>105.1810302734375</v>
+        <v>112.8057250976562</v>
       </c>
     </row>
     <row r="4541" spans="1:2">
@@ -36708,7 +36708,7 @@
         <v>8137.5</v>
       </c>
       <c r="B4541">
-        <v>107.7392425537109</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4542" spans="1:2">
@@ -36716,7 +36716,7 @@
         <v>8138</v>
       </c>
       <c r="B4542">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -36724,7 +36724,7 @@
         <v>8138.5</v>
       </c>
       <c r="B4543">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36732,7 +36732,7 @@
         <v>8139</v>
       </c>
       <c r="B4544">
-        <v>102.663818359375</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36740,7 +36740,7 @@
         <v>8139.5</v>
       </c>
       <c r="B4545">
-        <v>104.7350158691406</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36748,7 +36748,7 @@
         <v>8140</v>
       </c>
       <c r="B4546">
-        <v>110.3169860839844</v>
+        <v>116.3307495117188</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36756,7 +36756,7 @@
         <v>8140.5</v>
       </c>
       <c r="B4547">
-        <v>115.9117660522461</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36764,7 +36764,7 @@
         <v>8141</v>
       </c>
       <c r="B4548">
-        <v>117.4525527954102</v>
+        <v>127.6533584594727</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36772,7 +36772,7 @@
         <v>8141.5</v>
       </c>
       <c r="B4549">
-        <v>119.501823425293</v>
+        <v>124.6883316040039</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36780,7 +36780,7 @@
         <v>8142</v>
       </c>
       <c r="B4550">
-        <v>117.4525527954102</v>
+        <v>127.6533584594727</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36788,7 +36788,7 @@
         <v>8142.5</v>
       </c>
       <c r="B4551">
-        <v>116.6146774291992</v>
+        <v>126.8154525756836</v>
       </c>
     </row>
     <row r="4552" spans="1:2">
@@ -36796,7 +36796,7 @@
         <v>8143</v>
       </c>
       <c r="B4552">
-        <v>114.7780227661133</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36804,7 +36804,7 @@
         <v>8143.5</v>
       </c>
       <c r="B4553">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36812,7 +36812,7 @@
         <v>8144</v>
       </c>
       <c r="B4554">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -36820,7 +36820,7 @@
         <v>8144.5</v>
       </c>
       <c r="B4555">
-        <v>101.7570953369141</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4556" spans="1:2">
@@ -36828,7 +36828,7 @@
         <v>8145</v>
       </c>
       <c r="B4556">
-        <v>105.1810302734375</v>
+        <v>112.8057250976562</v>
       </c>
     </row>
     <row r="4557" spans="1:2">
@@ -36836,7 +36836,7 @@
         <v>8145.5</v>
       </c>
       <c r="B4557">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4558" spans="1:2">
@@ -36844,7 +36844,7 @@
         <v>8146</v>
       </c>
       <c r="B4558">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4559" spans="1:2">
@@ -36852,7 +36852,7 @@
         <v>8146.5</v>
       </c>
       <c r="B4559">
-        <v>112.2885665893555</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="4560" spans="1:2">
@@ -36860,7 +36860,7 @@
         <v>8147</v>
       </c>
       <c r="B4560">
-        <v>114.6345291137695</v>
+        <v>122.8946914672852</v>
       </c>
     </row>
     <row r="4561" spans="1:2">
@@ -36868,7 +36868,7 @@
         <v>8147.5</v>
       </c>
       <c r="B4561">
-        <v>114.7780227661133</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4562" spans="1:2">
@@ -36876,7 +36876,7 @@
         <v>8148</v>
       </c>
       <c r="B4562">
-        <v>111.2125625610352</v>
+        <v>124.0062789916992</v>
       </c>
     </row>
     <row r="4563" spans="1:2">
@@ -36884,7 +36884,7 @@
         <v>8148.5</v>
       </c>
       <c r="B4563">
-        <v>113.5948104858398</v>
+        <v>124.0062789916992</v>
       </c>
     </row>
     <row r="4564" spans="1:2">
@@ -36892,7 +36892,7 @@
         <v>8149</v>
       </c>
       <c r="B4564">
-        <v>116.6146774291992</v>
+        <v>126.8154525756836</v>
       </c>
     </row>
     <row r="4565" spans="1:2">
@@ -36900,7 +36900,7 @@
         <v>8149.5</v>
       </c>
       <c r="B4565">
-        <v>116.6146774291992</v>
+        <v>126.8154525756836</v>
       </c>
     </row>
     <row r="4566" spans="1:2">
@@ -36908,7 +36908,7 @@
         <v>8150</v>
       </c>
       <c r="B4566">
-        <v>114.7780227661133</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36916,7 +36916,7 @@
         <v>8150.5</v>
       </c>
       <c r="B4567">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -36924,7 +36924,7 @@
         <v>8151</v>
       </c>
       <c r="B4568">
-        <v>107.5038757324219</v>
+        <v>113.3069915771484</v>
       </c>
     </row>
     <row r="4569" spans="1:2">
@@ -36932,7 +36932,7 @@
         <v>8151.5</v>
       </c>
       <c r="B4569">
-        <v>102.5430297851562</v>
+        <v>110.167724609375</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -36940,7 +36940,7 @@
         <v>8152</v>
       </c>
       <c r="B4570">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -36948,7 +36948,7 @@
         <v>8152.5</v>
       </c>
       <c r="B4571">
-        <v>97.885498046875</v>
+        <v>107.8880920410156</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -36956,7 +36956,7 @@
         <v>8153</v>
       </c>
       <c r="B4572">
-        <v>97.885498046875</v>
+        <v>107.8880920410156</v>
       </c>
     </row>
     <row r="4573" spans="1:2">
@@ -36964,7 +36964,7 @@
         <v>8153.5</v>
       </c>
       <c r="B4573">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36972,7 +36972,7 @@
         <v>8154</v>
       </c>
       <c r="B4574">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36980,7 +36980,7 @@
         <v>8154.5</v>
       </c>
       <c r="B4575">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -36988,7 +36988,7 @@
         <v>8155</v>
       </c>
       <c r="B4576">
-        <v>109.6919937133789</v>
+        <v>115.4951095581055</v>
       </c>
     </row>
     <row r="4577" spans="1:2">
@@ -36996,7 +36996,7 @@
         <v>8155.5</v>
       </c>
       <c r="B4577">
-        <v>110.4355545043945</v>
+        <v>116.2386703491211</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -37004,7 +37004,7 @@
         <v>8156</v>
       </c>
       <c r="B4578">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37012,7 +37012,7 @@
         <v>8156.5</v>
       </c>
       <c r="B4579">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4580" spans="1:2">
@@ -37020,7 +37020,7 @@
         <v>8157</v>
       </c>
       <c r="B4580">
-        <v>112.1106948852539</v>
+        <v>117.9138107299805</v>
       </c>
     </row>
     <row r="4581" spans="1:2">
@@ -37028,7 +37028,7 @@
         <v>8157.5</v>
       </c>
       <c r="B4581">
-        <v>112.2885665893555</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="4582" spans="1:2">
@@ -37036,7 +37036,7 @@
         <v>8158</v>
       </c>
       <c r="B4582">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4583" spans="1:2">
@@ -37044,7 +37044,7 @@
         <v>8158.5</v>
       </c>
       <c r="B4583">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4584" spans="1:2">
@@ -37052,7 +37052,7 @@
         <v>8159</v>
       </c>
       <c r="B4584">
-        <v>101.2145843505859</v>
+        <v>108.8392715454102</v>
       </c>
     </row>
     <row r="4585" spans="1:2">
@@ -37060,7 +37060,7 @@
         <v>8159.5</v>
       </c>
       <c r="B4585">
-        <v>96.98916625976562</v>
+        <v>106.9917602539062</v>
       </c>
     </row>
     <row r="4586" spans="1:2">
@@ -37068,7 +37068,7 @@
         <v>8160</v>
       </c>
       <c r="B4586">
-        <v>93.15760803222656</v>
+        <v>103.2016754150391</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37076,7 +37076,7 @@
         <v>8160.5</v>
       </c>
       <c r="B4587">
-        <v>94.12655639648438</v>
+        <v>104.1706085205078</v>
       </c>
     </row>
     <row r="4588" spans="1:2">
@@ -37084,7 +37084,7 @@
         <v>8161</v>
       </c>
       <c r="B4588">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4589" spans="1:2">
@@ -37092,7 +37092,7 @@
         <v>8161.5</v>
       </c>
       <c r="B4589">
-        <v>105.1463470458984</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4590" spans="1:2">
@@ -37100,7 +37100,7 @@
         <v>8162</v>
       </c>
       <c r="B4590">
-        <v>109.695671081543</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="4591" spans="1:2">
@@ -37108,7 +37108,7 @@
         <v>8162.5</v>
       </c>
       <c r="B4591">
-        <v>105.8613662719727</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="4592" spans="1:2">
@@ -37116,7 +37116,7 @@
         <v>8163</v>
       </c>
       <c r="B4592">
-        <v>115.6070938110352</v>
+        <v>123.8672561645508</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37124,7 +37124,7 @@
         <v>8163.5</v>
       </c>
       <c r="B4593">
-        <v>113.1436996459961</v>
+        <v>121.4038619995117</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37132,7 +37132,7 @@
         <v>8164</v>
       </c>
       <c r="B4594">
-        <v>112.2885665893555</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37140,7 +37140,7 @@
         <v>8164.5</v>
       </c>
       <c r="B4595">
-        <v>112.0779190063477</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37148,7 +37148,7 @@
         <v>8165</v>
       </c>
       <c r="B4596">
-        <v>110.5508041381836</v>
+        <v>121.4038619995117</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37156,7 +37156,7 @@
         <v>8165.5</v>
       </c>
       <c r="B4597">
-        <v>112.041633605957</v>
+        <v>122.8946914672852</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37164,7 +37164,7 @@
         <v>8166</v>
       </c>
       <c r="B4598">
-        <v>104.516975402832</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37172,7 +37172,7 @@
         <v>8166.5</v>
       </c>
       <c r="B4599">
-        <v>112.1851272583008</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37180,7 +37180,7 @@
         <v>8167</v>
       </c>
       <c r="B4600">
-        <v>111.9247360229492</v>
+        <v>124.7184524536133</v>
       </c>
     </row>
     <row r="4601" spans="1:2">
@@ -37188,7 +37188,7 @@
         <v>8167.5</v>
       </c>
       <c r="B4601">
-        <v>117.4632263183594</v>
+        <v>127.8843536376953</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37196,7 +37196,7 @@
         <v>8168</v>
       </c>
       <c r="B4602">
-        <v>112.1851272583008</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37204,7 +37204,7 @@
         <v>8168.5</v>
       </c>
       <c r="B4603">
-        <v>112.4454879760742</v>
+        <v>120.9162979125977</v>
       </c>
     </row>
     <row r="4604" spans="1:2">
@@ -37212,7 +37212,7 @@
         <v>8169</v>
       </c>
       <c r="B4604">
-        <v>112.2885665893555</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="4605" spans="1:2">
@@ -37220,7 +37220,7 @@
         <v>8169.5</v>
       </c>
       <c r="B4605">
-        <v>111.2827529907227</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4606" spans="1:2">
@@ -37228,7 +37228,7 @@
         <v>8170</v>
       </c>
       <c r="B4606">
-        <v>109.6919937133789</v>
+        <v>115.4951095581055</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37236,7 +37236,7 @@
         <v>8170.5</v>
       </c>
       <c r="B4607">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4608" spans="1:2">
@@ -37244,7 +37244,7 @@
         <v>8171</v>
       </c>
       <c r="B4608">
-        <v>107.7392425537109</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4609" spans="1:2">
@@ -37252,7 +37252,7 @@
         <v>8171.5</v>
       </c>
       <c r="B4609">
-        <v>107.7392425537109</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4610" spans="1:2">
@@ -37260,7 +37260,7 @@
         <v>8172</v>
       </c>
       <c r="B4610">
-        <v>109.6919937133789</v>
+        <v>115.4951095581055</v>
       </c>
     </row>
     <row r="4611" spans="1:2">
@@ -37268,7 +37268,7 @@
         <v>8172.5</v>
       </c>
       <c r="B4611">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4612" spans="1:2">
@@ -37276,7 +37276,7 @@
         <v>8173</v>
       </c>
       <c r="B4612">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37284,7 +37284,7 @@
         <v>8173.5</v>
       </c>
       <c r="B4613">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37292,7 +37292,7 @@
         <v>8174</v>
       </c>
       <c r="B4614">
-        <v>101.7570953369141</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4615" spans="1:2">
@@ -37300,7 +37300,7 @@
         <v>8174.5</v>
       </c>
       <c r="B4615">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4616" spans="1:2">
@@ -37308,7 +37308,7 @@
         <v>8175</v>
       </c>
       <c r="B4616">
-        <v>102.0116958618164</v>
+        <v>109.6363906860352</v>
       </c>
     </row>
     <row r="4617" spans="1:2">
@@ -37316,7 +37316,7 @@
         <v>8175.5</v>
       </c>
       <c r="B4617">
-        <v>101.7570953369141</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37324,7 +37324,7 @@
         <v>8176</v>
       </c>
       <c r="B4618">
-        <v>101.7570953369141</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37332,7 +37332,7 @@
         <v>8176.5</v>
       </c>
       <c r="B4619">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4620" spans="1:2">
@@ -37340,7 +37340,7 @@
         <v>8177</v>
       </c>
       <c r="B4620">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37348,7 +37348,7 @@
         <v>8177.5</v>
       </c>
       <c r="B4621">
-        <v>105.1810302734375</v>
+        <v>112.8057250976562</v>
       </c>
     </row>
     <row r="4622" spans="1:2">
@@ -37356,7 +37356,7 @@
         <v>8178</v>
       </c>
       <c r="B4622">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37364,7 +37364,7 @@
         <v>8178.5</v>
       </c>
       <c r="B4623">
-        <v>109.4813461303711</v>
+        <v>115.4951095581055</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37372,7 +37372,7 @@
         <v>8179</v>
       </c>
       <c r="B4624">
-        <v>108.6898574829102</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37380,7 +37380,7 @@
         <v>8179.5</v>
       </c>
       <c r="B4625">
-        <v>107.842658996582</v>
+        <v>116.2386703491211</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37388,7 +37388,7 @@
         <v>8180</v>
       </c>
       <c r="B4626">
-        <v>107.9347381591797</v>
+        <v>116.3307495117188</v>
       </c>
     </row>
     <row r="4627" spans="1:2">
@@ -37396,7 +37396,7 @@
         <v>8180.5</v>
       </c>
       <c r="B4627">
-        <v>98.389404296875</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4628" spans="1:2">
@@ -37404,7 +37404,7 @@
         <v>8181</v>
       </c>
       <c r="B4628">
-        <v>97.47819519042969</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4629" spans="1:2">
@@ -37412,7 +37412,7 @@
         <v>8181.5</v>
       </c>
       <c r="B4629">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4630" spans="1:2">
@@ -37420,7 +37420,7 @@
         <v>8182</v>
       </c>
       <c r="B4630">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4631" spans="1:2">
@@ -37428,7 +37428,7 @@
         <v>8182.5</v>
       </c>
       <c r="B4631">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4632" spans="1:2">
@@ -37436,7 +37436,7 @@
         <v>8183</v>
       </c>
       <c r="B4632">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4633" spans="1:2">
@@ -37444,7 +37444,7 @@
         <v>8183.5</v>
       </c>
       <c r="B4633">
-        <v>111.0721054077148</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4634" spans="1:2">
@@ -37452,7 +37452,7 @@
         <v>8184</v>
       </c>
       <c r="B4634">
-        <v>112.4454879760742</v>
+        <v>120.9162979125977</v>
       </c>
     </row>
     <row r="4635" spans="1:2">
@@ -37460,7 +37460,7 @@
         <v>8184.5</v>
       </c>
       <c r="B4635">
-        <v>111.0721054077148</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4636" spans="1:2">
@@ -37468,7 +37468,7 @@
         <v>8185</v>
       </c>
       <c r="B4636">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4637" spans="1:2">
@@ -37476,7 +37476,7 @@
         <v>8185.5</v>
       </c>
       <c r="B4637">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4638" spans="1:2">
@@ -37484,7 +37484,7 @@
         <v>8186</v>
       </c>
       <c r="B4638">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37492,7 +37492,7 @@
         <v>8186.5</v>
       </c>
       <c r="B4639">
-        <v>100.9629516601562</v>
+        <v>108.587646484375</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37500,7 +37500,7 @@
         <v>8187</v>
       </c>
       <c r="B4640">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -37508,7 +37508,7 @@
         <v>8187.5</v>
       </c>
       <c r="B4641">
-        <v>110.5276336669922</v>
+        <v>116.3307495117188</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37516,7 +37516,7 @@
         <v>8188</v>
       </c>
       <c r="B4642">
-        <v>112.2885665893555</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="4643" spans="1:2">
@@ -37524,7 +37524,7 @@
         <v>8188.5</v>
       </c>
       <c r="B4643">
-        <v>114.5673751831055</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37532,7 +37532,7 @@
         <v>8189</v>
       </c>
       <c r="B4644">
-        <v>115.9117660522461</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37540,7 +37540,7 @@
         <v>8189.5</v>
       </c>
       <c r="B4645">
-        <v>117.1912155151367</v>
+        <v>127.3920059204102</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37548,7 +37548,7 @@
         <v>8190</v>
       </c>
       <c r="B4646">
-        <v>116.1224136352539</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37556,7 +37556,7 @@
         <v>8190.5</v>
       </c>
       <c r="B4647">
-        <v>114.7780227661133</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -37564,7 +37564,7 @@
         <v>8191</v>
       </c>
       <c r="B4648">
-        <v>114.6345291137695</v>
+        <v>122.8946914672852</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37572,7 +37572,7 @@
         <v>8191.5</v>
       </c>
       <c r="B4649">
-        <v>113.5948104858398</v>
+        <v>124.0062789916992</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -37580,7 +37580,7 @@
         <v>8192</v>
       </c>
       <c r="B4650">
-        <v>114.3069839477539</v>
+        <v>124.7184524536133</v>
       </c>
     </row>
     <row r="4651" spans="1:2">
@@ -37588,7 +37588,7 @@
         <v>8192.5</v>
       </c>
       <c r="B4651">
-        <v>112.1851272583008</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37596,7 +37596,7 @@
         <v>8193</v>
       </c>
       <c r="B4652">
-        <v>115.9117660522461</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37604,7 +37604,7 @@
         <v>8193.5</v>
       </c>
       <c r="B4653">
-        <v>116.9805679321289</v>
+        <v>127.3920059204102</v>
       </c>
     </row>
     <row r="4654" spans="1:2">
@@ -37612,7 +37612,7 @@
         <v>8194</v>
       </c>
       <c r="B4654">
-        <v>116.9805679321289</v>
+        <v>127.3920059204102</v>
       </c>
     </row>
     <row r="4655" spans="1:2">
@@ -37620,7 +37620,7 @@
         <v>8194.5</v>
       </c>
       <c r="B4655">
-        <v>114.0217819213867</v>
+        <v>126.8154525756836</v>
       </c>
     </row>
     <row r="4656" spans="1:2">
@@ -37628,7 +37628,7 @@
         <v>8195</v>
       </c>
       <c r="B4656">
-        <v>118.4641799926758</v>
+        <v>128.8853607177734</v>
       </c>
     </row>
     <row r="4657" spans="1:2">
@@ -37636,7 +37636,7 @@
         <v>8195.5</v>
       </c>
       <c r="B4657">
-        <v>122.0489730834961</v>
+        <v>129.3792419433594</v>
       </c>
     </row>
     <row r="4658" spans="1:2">
@@ -37644,7 +37644,7 @@
         <v>8196</v>
       </c>
       <c r="B4658">
-        <v>126.4618606567383</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="4659" spans="1:2">
@@ -37652,7 +37652,7 @@
         <v>8196.5</v>
       </c>
       <c r="B4659">
-        <v>126.7680435180664</v>
+        <v>128.8656311035156</v>
       </c>
     </row>
     <row r="4660" spans="1:2">
@@ -37660,7 +37660,7 @@
         <v>8197</v>
       </c>
       <c r="B4660">
-        <v>129.4370727539062</v>
+        <v>131.53466796875</v>
       </c>
     </row>
     <row r="4661" spans="1:2">
@@ -37668,7 +37668,7 @@
         <v>8197.5</v>
       </c>
       <c r="B4661">
-        <v>129.4370727539062</v>
+        <v>131.53466796875</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37676,7 +37676,7 @@
         <v>8198</v>
       </c>
       <c r="B4662">
-        <v>127.6126327514648</v>
+        <v>129.7102203369141</v>
       </c>
     </row>
     <row r="4663" spans="1:2">
@@ -37684,7 +37684,7 @@
         <v>8198.5</v>
       </c>
       <c r="B4663">
-        <v>126.909538269043</v>
+        <v>129.0071411132812</v>
       </c>
     </row>
     <row r="4664" spans="1:2">
@@ -37692,7 +37692,7 @@
         <v>8199</v>
       </c>
       <c r="B4664">
-        <v>124.4213638305664</v>
+        <v>131.53466796875</v>
       </c>
     </row>
     <row r="4665" spans="1:2">
@@ -37700,7 +37700,7 @@
         <v>8199.5</v>
       </c>
       <c r="B4665">
-        <v>129.4370727539062</v>
+        <v>131.53466796875</v>
       </c>
     </row>
     <row r="4666" spans="1:2">
@@ -37708,7 +37708,7 @@
         <v>8200</v>
       </c>
       <c r="B4666">
-        <v>127.6126327514648</v>
+        <v>129.7102203369141</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37716,7 +37716,7 @@
         <v>8200.5</v>
       </c>
       <c r="B4667">
-        <v>126.2746047973633</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37724,7 +37724,7 @@
         <v>8201</v>
       </c>
       <c r="B4668">
-        <v>124.2253189086914</v>
+        <v>129.0858917236328</v>
       </c>
     </row>
     <row r="4669" spans="1:2">
@@ -37732,7 +37732,7 @@
         <v>8201.5</v>
       </c>
       <c r="B4669">
-        <v>124.560920715332</v>
+        <v>128.2479705810547</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37740,7 +37740,7 @@
         <v>8202</v>
       </c>
       <c r="B4670">
-        <v>119.0166549682617</v>
+        <v>126.4113464355469</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37748,7 +37748,7 @@
         <v>8202.5</v>
       </c>
       <c r="B4671">
-        <v>115.8944778442383</v>
+        <v>124.3749694824219</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37756,7 +37756,7 @@
         <v>8203</v>
       </c>
       <c r="B4672">
-        <v>120.3610458374023</v>
+        <v>127.7556991577148</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37764,7 +37764,7 @@
         <v>8203.5</v>
       </c>
       <c r="B4673">
-        <v>123.963981628418</v>
+        <v>128.8245544433594</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -37772,7 +37772,7 @@
         <v>8204</v>
       </c>
       <c r="B4674">
-        <v>125.3542861938477</v>
+        <v>130.2148590087891</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37780,7 +37780,7 @@
         <v>8204.5</v>
       </c>
       <c r="B4675">
-        <v>126.1147384643555</v>
+        <v>130.6694030761719</v>
       </c>
     </row>
     <row r="4676" spans="1:2">
@@ -37788,7 +37788,7 @@
         <v>8205</v>
       </c>
       <c r="B4676">
-        <v>126.2746047973633</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="4677" spans="1:2">
@@ -37796,7 +37796,7 @@
         <v>8205.5</v>
       </c>
       <c r="B4677">
-        <v>127.6126327514648</v>
+        <v>129.7102203369141</v>
       </c>
     </row>
     <row r="4678" spans="1:2">
@@ -37804,7 +37804,7 @@
         <v>8206</v>
       </c>
       <c r="B4678">
-        <v>126.9552993774414</v>
+        <v>128.8656311035156</v>
       </c>
     </row>
     <row r="4679" spans="1:2">
@@ -37812,7 +37812,7 @@
         <v>8206.5</v>
       </c>
       <c r="B4679">
-        <v>123.7404708862305</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="4680" spans="1:2">
@@ -37820,7 +37820,7 @@
         <v>8207</v>
       </c>
       <c r="B4680">
-        <v>119.9163513183594</v>
+        <v>130.3375244140625</v>
       </c>
     </row>
     <row r="4681" spans="1:2">
@@ -37828,7 +37828,7 @@
         <v>8207.5</v>
       </c>
       <c r="B4681">
-        <v>111.0721054077148</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4682" spans="1:2">
@@ -37836,7 +37836,7 @@
         <v>8208</v>
       </c>
       <c r="B4682">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4683" spans="1:2">
@@ -37844,7 +37844,7 @@
         <v>8208.5</v>
       </c>
       <c r="B4683">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37852,7 +37852,7 @@
         <v>8209</v>
       </c>
       <c r="B4684">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4685" spans="1:2">
@@ -37860,7 +37860,7 @@
         <v>8209.5</v>
       </c>
       <c r="B4685">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4686" spans="1:2">
@@ -37868,7 +37868,7 @@
         <v>8210</v>
       </c>
       <c r="B4686">
-        <v>96.63003540039062</v>
+        <v>104.8110504150391</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37876,7 +37876,7 @@
         <v>8210.5</v>
       </c>
       <c r="B4687">
-        <v>93.15760803222656</v>
+        <v>103.2016754150391</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37884,7 +37884,7 @@
         <v>8211</v>
       </c>
       <c r="B4688">
-        <v>92.94754791259766</v>
+        <v>100.6137084960938</v>
       </c>
     </row>
     <row r="4689" spans="1:2">
@@ -37892,7 +37892,7 @@
         <v>8211.5</v>
       </c>
       <c r="B4689">
-        <v>92.78741455078125</v>
+        <v>99.58202362060547</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -37900,7 +37900,7 @@
         <v>8212</v>
       </c>
       <c r="B4690">
-        <v>91.53599548339844</v>
+        <v>98.33060455322266</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37908,7 +37908,7 @@
         <v>8212.5</v>
       </c>
       <c r="B4691">
-        <v>86.68110656738281</v>
+        <v>96.99675750732422</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -37916,7 +37916,7 @@
         <v>8213</v>
       </c>
       <c r="B4692">
-        <v>85.08804321289062</v>
+        <v>95.40370178222656</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37924,7 +37924,7 @@
         <v>8213.5</v>
       </c>
       <c r="B4693">
-        <v>86.68110656738281</v>
+        <v>96.99675750732422</v>
       </c>
     </row>
     <row r="4694" spans="1:2">
@@ -37932,7 +37932,7 @@
         <v>8214</v>
       </c>
       <c r="B4694">
-        <v>92.58230590820312</v>
+        <v>99.37691497802734</v>
       </c>
     </row>
     <row r="4695" spans="1:2">
@@ -37940,7 +37940,7 @@
         <v>8214.5</v>
       </c>
       <c r="B4695">
-        <v>92.810546875</v>
+        <v>99.60516357421875</v>
       </c>
     </row>
     <row r="4696" spans="1:2">
@@ -37948,7 +37948,7 @@
         <v>8215</v>
       </c>
       <c r="B4696">
-        <v>93.86771392822266</v>
+        <v>101.5338821411133</v>
       </c>
     </row>
     <row r="4697" spans="1:2">
@@ -37956,7 +37956,7 @@
         <v>8215.5</v>
       </c>
       <c r="B4697">
-        <v>92.85455322265625</v>
+        <v>102.8986206054688</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -37964,7 +37964,7 @@
         <v>8216</v>
       </c>
       <c r="B4698">
-        <v>96.63003540039062</v>
+        <v>104.8110504150391</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37972,7 +37972,7 @@
         <v>8216.5</v>
       </c>
       <c r="B4699">
-        <v>96.63003540039062</v>
+        <v>104.8110504150391</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -37980,7 +37980,7 @@
         <v>8217</v>
       </c>
       <c r="B4700">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4701" spans="1:2">
@@ -37988,7 +37988,7 @@
         <v>8217.5</v>
       </c>
       <c r="B4701">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4702" spans="1:2">
@@ -37996,7 +37996,7 @@
         <v>8218</v>
       </c>
       <c r="B4702">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4703" spans="1:2">
@@ -38004,7 +38004,7 @@
         <v>8218.5</v>
       </c>
       <c r="B4703">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4704" spans="1:2">
@@ -38012,7 +38012,7 @@
         <v>8219</v>
       </c>
       <c r="B4704">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4705" spans="1:2">
@@ -38020,7 +38020,7 @@
         <v>8219.5</v>
       </c>
       <c r="B4705">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4706" spans="1:2">
@@ -38028,7 +38028,7 @@
         <v>8220</v>
       </c>
       <c r="B4706">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4707" spans="1:2">
@@ -38036,7 +38036,7 @@
         <v>8220.5</v>
       </c>
       <c r="B4707">
-        <v>99.43235778808594</v>
+        <v>109.4349517822266</v>
       </c>
     </row>
     <row r="4708" spans="1:2">
@@ -38044,7 +38044,7 @@
         <v>8221</v>
       </c>
       <c r="B4708">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4709" spans="1:2">
@@ -38052,7 +38052,7 @@
         <v>8221.5</v>
       </c>
       <c r="B4709">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4710" spans="1:2">
@@ -38060,7 +38060,7 @@
         <v>8222</v>
       </c>
       <c r="B4710">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4711" spans="1:2">
@@ -38068,7 +38068,7 @@
         <v>8222.5</v>
       </c>
       <c r="B4711">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4712" spans="1:2">
@@ -38076,7 +38076,7 @@
         <v>8223</v>
       </c>
       <c r="B4712">
-        <v>92.33123779296875</v>
+        <v>102.3752975463867</v>
       </c>
     </row>
     <row r="4713" spans="1:2">
@@ -38084,7 +38084,7 @@
         <v>8223.5</v>
       </c>
       <c r="B4713">
-        <v>92.94754791259766</v>
+        <v>100.6137084960938</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38092,7 +38092,7 @@
         <v>8224</v>
       </c>
       <c r="B4714">
-        <v>91.83716583251953</v>
+        <v>100.4948272705078</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38100,7 +38100,7 @@
         <v>8224.5</v>
       </c>
       <c r="B4715">
-        <v>92.94754791259766</v>
+        <v>100.6137084960938</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38108,7 +38108,7 @@
         <v>8225</v>
       </c>
       <c r="B4716">
-        <v>92.35586547851562</v>
+        <v>102.3999252319336</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38116,7 +38116,7 @@
         <v>8225.5</v>
       </c>
       <c r="B4717">
-        <v>94.12655639648438</v>
+        <v>104.1706085205078</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38124,7 +38124,7 @@
         <v>8226</v>
       </c>
       <c r="B4718">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4719" spans="1:2">
@@ -38132,7 +38132,7 @@
         <v>8226.5</v>
       </c>
       <c r="B4719">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4720" spans="1:2">
@@ -38140,7 +38140,7 @@
         <v>8227</v>
       </c>
       <c r="B4720">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4721" spans="1:2">
@@ -38148,7 +38148,7 @@
         <v>8227.5</v>
       </c>
       <c r="B4721">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38156,7 +38156,7 @@
         <v>8228</v>
       </c>
       <c r="B4722">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4723" spans="1:2">
@@ -38164,7 +38164,7 @@
         <v>8228.5</v>
       </c>
       <c r="B4723">
-        <v>102.663818359375</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4724" spans="1:2">
@@ -38172,7 +38172,7 @@
         <v>8229</v>
       </c>
       <c r="B4724">
-        <v>107.5285949707031</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4725" spans="1:2">
@@ -38180,7 +38180,7 @@
         <v>8229.5</v>
       </c>
       <c r="B4725">
-        <v>107.5285949707031</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4726" spans="1:2">
@@ -38188,7 +38188,7 @@
         <v>8230</v>
       </c>
       <c r="B4726">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4727" spans="1:2">
@@ -38196,7 +38196,7 @@
         <v>8230.5</v>
       </c>
       <c r="B4727">
-        <v>111.0721054077148</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4728" spans="1:2">
@@ -38204,7 +38204,7 @@
         <v>8231</v>
       </c>
       <c r="B4728">
-        <v>111.2125625610352</v>
+        <v>124.0062789916992</v>
       </c>
     </row>
     <row r="4729" spans="1:2">
@@ -38212,7 +38212,7 @@
         <v>8231.5</v>
       </c>
       <c r="B4729">
-        <v>117.9554901123047</v>
+        <v>128.3766326904297</v>
       </c>
     </row>
     <row r="4730" spans="1:2">
@@ -38220,7 +38220,7 @@
         <v>8232</v>
       </c>
       <c r="B4730">
-        <v>117.4632263183594</v>
+        <v>127.8843536376953</v>
       </c>
     </row>
     <row r="4731" spans="1:2">
@@ -38228,7 +38228,7 @@
         <v>8232.5</v>
       </c>
       <c r="B4731">
-        <v>110.094108581543</v>
+        <v>118.490119934082</v>
       </c>
     </row>
     <row r="4732" spans="1:2">
@@ -38236,7 +38236,7 @@
         <v>8233</v>
       </c>
       <c r="B4732">
-        <v>102.663818359375</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4733" spans="1:2">
@@ -38244,7 +38244,7 @@
         <v>8233.5</v>
       </c>
       <c r="B4733">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38252,7 +38252,7 @@
         <v>8234</v>
       </c>
       <c r="B4734">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38260,7 +38260,7 @@
         <v>8234.5</v>
       </c>
       <c r="B4735">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4736" spans="1:2">
@@ -38268,7 +38268,7 @@
         <v>8235</v>
       </c>
       <c r="B4736">
-        <v>92.05062866210938</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4737" spans="1:2">
@@ -38276,7 +38276,7 @@
         <v>8235.5</v>
       </c>
       <c r="B4737">
-        <v>99.26708984375</v>
+        <v>109.4846801757812</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38284,7 +38284,7 @@
         <v>8236</v>
       </c>
       <c r="B4738">
-        <v>102.3527679443359</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38292,7 +38292,7 @@
         <v>8236.5</v>
       </c>
       <c r="B4739">
-        <v>100.2815704345703</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38300,7 +38300,7 @@
         <v>8237</v>
       </c>
       <c r="B4740">
-        <v>103.5100173950195</v>
+        <v>111.3550415039062</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38308,7 +38308,7 @@
         <v>8237.5</v>
       </c>
       <c r="B4741">
-        <v>106.3834838867188</v>
+        <v>114.2285079956055</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38316,7 +38316,7 @@
         <v>8238</v>
       </c>
       <c r="B4742">
-        <v>116.8670425415039</v>
+        <v>125.3475341796875</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38324,7 +38324,7 @@
         <v>8238.5</v>
       </c>
       <c r="B4743">
-        <v>117.8816604614258</v>
+        <v>128.3027954101562</v>
       </c>
     </row>
     <row r="4744" spans="1:2">
@@ -38332,7 +38332,7 @@
         <v>8239</v>
       </c>
       <c r="B4744">
-        <v>110.0632400512695</v>
+        <v>120.9162979125977</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38340,7 +38340,7 @@
         <v>8239.5</v>
       </c>
       <c r="B4745">
-        <v>106.0575561523438</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38348,7 +38348,7 @@
         <v>8240</v>
       </c>
       <c r="B4746">
-        <v>105.1463470458984</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4747" spans="1:2">
@@ -38356,7 +38356,7 @@
         <v>8240.5</v>
       </c>
       <c r="B4747">
-        <v>109.0062255859375</v>
+        <v>115.029670715332</v>
       </c>
     </row>
     <row r="4748" spans="1:2">
@@ -38364,7 +38364,7 @@
         <v>8241</v>
       </c>
       <c r="B4748">
-        <v>112.1557464599609</v>
+        <v>115.1527328491211</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38372,7 +38372,7 @@
         <v>8241.5</v>
       </c>
       <c r="B4749">
-        <v>115.6010894775391</v>
+        <v>116.0639419555664</v>
       </c>
     </row>
     <row r="4750" spans="1:2">
@@ -38380,7 +38380,7 @@
         <v>8242</v>
       </c>
       <c r="B4750">
-        <v>119.4289016723633</v>
+        <v>122.3488006591797</v>
       </c>
     </row>
     <row r="4751" spans="1:2">
@@ -38388,7 +38388,7 @@
         <v>8242.5</v>
       </c>
       <c r="B4751">
-        <v>126.7680435180664</v>
+        <v>128.8656311035156</v>
       </c>
     </row>
     <row r="4752" spans="1:2">
@@ -38396,7 +38396,7 @@
         <v>8243</v>
       </c>
       <c r="B4752">
-        <v>136.501953125</v>
+        <v>138.5995788574219</v>
       </c>
     </row>
     <row r="4753" spans="1:2">
@@ -38404,7 +38404,7 @@
         <v>8243.5</v>
       </c>
       <c r="B4753">
-        <v>135.4710693359375</v>
+        <v>137.5686950683594</v>
       </c>
     </row>
     <row r="4754" spans="1:2">
@@ -38412,7 +38412,7 @@
         <v>8244</v>
       </c>
       <c r="B4754">
-        <v>125.078498840332</v>
+        <v>129.7102203369141</v>
       </c>
     </row>
     <row r="4755" spans="1:2">
@@ -38420,7 +38420,7 @@
         <v>8244.5</v>
       </c>
       <c r="B4755">
-        <v>120.7688217163086</v>
+        <v>130.8840789794922</v>
       </c>
     </row>
     <row r="4756" spans="1:2">
@@ -38428,7 +38428,7 @@
         <v>8245</v>
       </c>
       <c r="B4756">
-        <v>118.6679916381836</v>
+        <v>129.0794982910156</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38436,7 +38436,7 @@
         <v>8245.5</v>
       </c>
       <c r="B4757">
-        <v>115.6070938110352</v>
+        <v>123.8672561645508</v>
       </c>
     </row>
     <row r="4758" spans="1:2">
@@ -38444,7 +38444,7 @@
         <v>8246</v>
       </c>
       <c r="B4758">
-        <v>116.1224136352539</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="4759" spans="1:2">
@@ -38452,7 +38452,7 @@
         <v>8246.5</v>
       </c>
       <c r="B4759">
-        <v>118.4962310791016</v>
+        <v>128.9174041748047</v>
       </c>
     </row>
     <row r="4760" spans="1:2">
@@ -38460,7 +38460,7 @@
         <v>8247</v>
       </c>
       <c r="B4760">
-        <v>121.6911849975586</v>
+        <v>129.0858917236328</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38468,7 +38468,7 @@
         <v>8247.5</v>
       </c>
       <c r="B4761">
-        <v>123.9699630737305</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38476,7 +38476,7 @@
         <v>8248</v>
       </c>
       <c r="B4762">
-        <v>125.8386764526367</v>
+        <v>130.5119934082031</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38484,7 +38484,7 @@
         <v>8248.5</v>
       </c>
       <c r="B4763">
-        <v>122.8201522827148</v>
+        <v>130.2148590087891</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38492,7 +38492,7 @@
         <v>8249</v>
       </c>
       <c r="B4764">
-        <v>121.4298477172852</v>
+        <v>128.8245544433594</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38500,7 +38500,7 @@
         <v>8249.5</v>
       </c>
       <c r="B4765">
-        <v>123.5746994018555</v>
+        <v>128.2479705810547</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38508,7 +38508,7 @@
         <v>8250</v>
       </c>
       <c r="B4766">
-        <v>118.2218322753906</v>
+        <v>118.684684753418</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38516,7 +38516,7 @@
         <v>8250.5</v>
       </c>
       <c r="B4767">
-        <v>108.7763748168945</v>
+        <v>111.0608062744141</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38524,7 +38524,7 @@
         <v>8251</v>
       </c>
       <c r="B4768">
-        <v>108.0272216796875</v>
+        <v>115.3273086547852</v>
       </c>
     </row>
     <row r="4769" spans="1:2">
@@ -38532,7 +38532,7 @@
         <v>8251.5</v>
       </c>
       <c r="B4769">
-        <v>125.6514205932617</v>
+        <v>130.5119934082031</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38540,7 +38540,7 @@
         <v>8252</v>
       </c>
       <c r="B4770">
-        <v>132.0158538818359</v>
+        <v>134.1134948730469</v>
       </c>
     </row>
     <row r="4771" spans="1:2">
@@ -38548,7 +38548,7 @@
         <v>8252.5</v>
       </c>
       <c r="B4771">
-        <v>135.4710693359375</v>
+        <v>137.5686950683594</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38556,7 +38556,7 @@
         <v>8253</v>
       </c>
       <c r="B4772">
-        <v>132.5608825683594</v>
+        <v>133.4850311279297</v>
       </c>
     </row>
     <row r="4773" spans="1:2">
@@ -38564,7 +38564,7 @@
         <v>8253.5</v>
       </c>
       <c r="B4773">
-        <v>128.8533020019531</v>
+        <v>133.4850311279297</v>
       </c>
     </row>
     <row r="4774" spans="1:2">
@@ -38572,7 +38572,7 @@
         <v>8254</v>
       </c>
       <c r="B4774">
-        <v>131.1073455810547</v>
+        <v>135.7391052246094</v>
       </c>
     </row>
     <row r="4775" spans="1:2">
@@ -38580,7 +38580,7 @@
         <v>8254.5</v>
       </c>
       <c r="B4775">
-        <v>126.5008850097656</v>
+        <v>134.1591186523438</v>
       </c>
     </row>
     <row r="4776" spans="1:2">
@@ -38588,7 +38588,7 @@
         <v>8255</v>
       </c>
       <c r="B4776">
-        <v>118.580696105957</v>
+        <v>128.8882751464844</v>
       </c>
     </row>
     <row r="4777" spans="1:2">
@@ -38596,7 +38596,7 @@
         <v>8255.5</v>
       </c>
       <c r="B4777">
-        <v>119.3419570922852</v>
+        <v>129.2369079589844</v>
       </c>
     </row>
     <row r="4778" spans="1:2">
@@ -38604,7 +38604,7 @@
         <v>8256</v>
       </c>
       <c r="B4778">
-        <v>112.656135559082</v>
+        <v>120.9162979125977</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38612,7 +38612,7 @@
         <v>8256.5</v>
       </c>
       <c r="B4779">
-        <v>101.9774322509766</v>
+        <v>109.6021270751953</v>
       </c>
     </row>
     <row r="4780" spans="1:2">
@@ -38620,7 +38620,7 @@
         <v>8257</v>
       </c>
       <c r="B4780">
-        <v>96.60690307617188</v>
+        <v>104.7879028320312</v>
       </c>
     </row>
     <row r="4781" spans="1:2">
@@ -38628,7 +38628,7 @@
         <v>8257.5</v>
       </c>
       <c r="B4781">
-        <v>92.3543701171875</v>
+        <v>102.3984375</v>
       </c>
     </row>
     <row r="4782" spans="1:2">
@@ -38636,7 +38636,7 @@
         <v>8258</v>
       </c>
       <c r="B4782">
-        <v>94.12655639648438</v>
+        <v>104.1706085205078</v>
       </c>
     </row>
     <row r="4783" spans="1:2">
@@ -38644,7 +38644,7 @@
         <v>8258.5</v>
       </c>
       <c r="B4783">
-        <v>99.16419982910156</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38652,7 +38652,7 @@
         <v>8259</v>
       </c>
       <c r="B4784">
-        <v>112.5497360229492</v>
+        <v>118.5731811523438</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38660,7 +38660,7 @@
         <v>8259.5</v>
       </c>
       <c r="B4785">
-        <v>115.9015121459961</v>
+        <v>124.3820037841797</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38668,7 +38668,7 @@
         <v>8260</v>
       </c>
       <c r="B4786">
-        <v>112.1851272583008</v>
+        <v>124.9788436889648</v>
       </c>
     </row>
     <row r="4787" spans="1:2">
@@ -38676,7 +38676,7 @@
         <v>8260.5</v>
       </c>
       <c r="B4787">
-        <v>113.5948104858398</v>
+        <v>124.0062789916992</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38684,7 +38684,7 @@
         <v>8261</v>
       </c>
       <c r="B4788">
-        <v>110.0632400512695</v>
+        <v>121.1931304931641</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38692,7 +38692,7 @@
         <v>8261.5</v>
       </c>
       <c r="B4789">
-        <v>116.5271987915039</v>
+        <v>119.5241851806641</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38700,7 +38700,7 @@
         <v>8262</v>
       </c>
       <c r="B4790">
-        <v>122.3798599243164</v>
+        <v>125.2997589111328</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38708,7 +38708,7 @@
         <v>8262.5</v>
       </c>
       <c r="B4791">
-        <v>123.9699630737305</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38716,7 +38716,7 @@
         <v>8263</v>
       </c>
       <c r="B4792">
-        <v>124.2253189086914</v>
+        <v>129.0858917236328</v>
       </c>
     </row>
     <row r="4793" spans="1:2">
@@ -38724,7 +38724,7 @@
         <v>8263.5</v>
       </c>
       <c r="B4793">
-        <v>126.1147384643555</v>
+        <v>130.6694030761719</v>
       </c>
     </row>
     <row r="4794" spans="1:2">
@@ -38732,7 +38732,7 @@
         <v>8264</v>
       </c>
       <c r="B4794">
-        <v>126.1147384643555</v>
+        <v>130.6694030761719</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38740,7 +38740,7 @@
         <v>8264.5</v>
       </c>
       <c r="B4795">
-        <v>126.2746047973633</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="4796" spans="1:2">
@@ -38748,7 +38748,7 @@
         <v>8265</v>
       </c>
       <c r="B4796">
-        <v>126.2746047973633</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38756,7 +38756,7 @@
         <v>8265.5</v>
       </c>
       <c r="B4797">
-        <v>126.909538269043</v>
+        <v>129.0071411132812</v>
       </c>
     </row>
     <row r="4798" spans="1:2">
@@ -38764,7 +38764,7 @@
         <v>8266</v>
       </c>
       <c r="B4798">
-        <v>129.4370727539062</v>
+        <v>131.53466796875</v>
       </c>
     </row>
     <row r="4799" spans="1:2">
@@ -38772,7 +38772,7 @@
         <v>8266.5</v>
       </c>
       <c r="B4799">
-        <v>132.0158538818359</v>
+        <v>134.1134948730469</v>
       </c>
     </row>
     <row r="4800" spans="1:2">
@@ -38780,7 +38780,7 @@
         <v>8267</v>
       </c>
       <c r="B4800">
-        <v>126.6616363525391</v>
+        <v>133.8895111083984</v>
       </c>
     </row>
     <row r="4801" spans="1:2">
@@ -38788,7 +38788,7 @@
         <v>8267.5</v>
       </c>
       <c r="B4801">
-        <v>126.4380645751953</v>
+        <v>134.0084686279297</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -38796,7 +38796,7 @@
         <v>8268</v>
       </c>
       <c r="B4802">
-        <v>129.6708526611328</v>
+        <v>136.3349609375</v>
       </c>
     </row>
     <row r="4803" spans="1:2">
@@ -38804,7 +38804,7 @@
         <v>8268.5</v>
       </c>
       <c r="B4803">
-        <v>134.3030853271484</v>
+        <v>140.9671936035156</v>
       </c>
     </row>
     <row r="4804" spans="1:2">
@@ -38812,7 +38812,7 @@
         <v>8269</v>
       </c>
       <c r="B4804">
-        <v>140.0490875244141</v>
+        <v>146.1483306884766</v>
       </c>
     </row>
     <row r="4805" spans="1:2">
@@ -38820,7 +38820,7 @@
         <v>8269.5</v>
       </c>
       <c r="B4805">
-        <v>147.8929748535156</v>
+        <v>153.3666076660156</v>
       </c>
     </row>
     <row r="4806" spans="1:2">
@@ -38828,7 +38828,7 @@
         <v>8270</v>
       </c>
       <c r="B4806">
-        <v>149.2630767822266</v>
+        <v>156.2027740478516</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -38836,7 +38836,7 @@
         <v>8270.5</v>
       </c>
       <c r="B4807">
-        <v>143.2802734375</v>
+        <v>151.1071624755859</v>
       </c>
     </row>
     <row r="4808" spans="1:2">
@@ -38844,7 +38844,7 @@
         <v>8271</v>
       </c>
       <c r="B4808">
-        <v>142.4937286376953</v>
+        <v>149.8646392822266</v>
       </c>
     </row>
     <row r="4809" spans="1:2">
@@ -38852,7 +38852,7 @@
         <v>8271.5</v>
       </c>
       <c r="B4809">
-        <v>142.9761199951172</v>
+        <v>150.3470306396484</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38860,7 +38860,7 @@
         <v>8272</v>
       </c>
       <c r="B4810">
-        <v>143.7846832275391</v>
+        <v>152.517822265625</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38868,7 +38868,7 @@
         <v>8272.5</v>
       </c>
       <c r="B4811">
-        <v>156.1065521240234</v>
+        <v>157.2871551513672</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38876,7 +38876,7 @@
         <v>8273</v>
       </c>
       <c r="B4812">
-        <v>140.6054992675781</v>
+        <v>144.6723175048828</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38884,7 +38884,7 @@
         <v>8273.5</v>
       </c>
       <c r="B4813">
-        <v>126.5079193115234</v>
+        <v>134.1661529541016</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38892,7 +38892,7 @@
         <v>8274</v>
       </c>
       <c r="B4814">
-        <v>118.6679916381836</v>
+        <v>129.0794982910156</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38900,7 +38900,7 @@
         <v>8274.5</v>
       </c>
       <c r="B4815">
-        <v>112.7452621459961</v>
+        <v>121.0054244995117</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38908,7 +38908,7 @@
         <v>8275</v>
       </c>
       <c r="B4816">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -38916,7 +38916,7 @@
         <v>8275.5</v>
       </c>
       <c r="B4817">
-        <v>104.2152786254883</v>
+        <v>112.060302734375</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38924,7 +38924,7 @@
         <v>8276</v>
       </c>
       <c r="B4818">
-        <v>104.1414489746094</v>
+        <v>111.9864730834961</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38932,7 +38932,7 @@
         <v>8276.5</v>
       </c>
       <c r="B4819">
-        <v>109.9912643432617</v>
+        <v>116.0147094726562</v>
       </c>
     </row>
     <row r="4820" spans="1:2">
@@ -38940,7 +38940,7 @@
         <v>8277</v>
       </c>
       <c r="B4820">
-        <v>108.6898574829102</v>
+        <v>117.3627014160156</v>
       </c>
     </row>
     <row r="4821" spans="1:2">
@@ -38948,7 +38948,7 @@
         <v>8277.5</v>
       </c>
       <c r="B4821">
-        <v>113.555549621582</v>
+        <v>119.5789947509766</v>
       </c>
     </row>
     <row r="4822" spans="1:2">
@@ -38956,7 +38956,7 @@
         <v>8278</v>
       </c>
       <c r="B4822">
-        <v>113.953987121582</v>
+        <v>119.9774322509766</v>
       </c>
     </row>
     <row r="4823" spans="1:2">
@@ -38964,7 +38964,7 @@
         <v>8278.5</v>
       </c>
       <c r="B4823">
-        <v>114.4106826782227</v>
+        <v>122.8911743164062</v>
       </c>
     </row>
     <row r="4824" spans="1:2">
@@ -38972,7 +38972,7 @@
         <v>8279</v>
       </c>
       <c r="B4824">
-        <v>114.4106826782227</v>
+        <v>122.8911743164062</v>
       </c>
     </row>
     <row r="4825" spans="1:2">
@@ -38980,7 +38980,7 @@
         <v>8279.5</v>
       </c>
       <c r="B4825">
-        <v>108.6898574829102</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4826" spans="1:2">
@@ -38988,7 +38988,7 @@
         <v>8280</v>
       </c>
       <c r="B4826">
-        <v>107.9347381591797</v>
+        <v>116.3307495117188</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -38996,7 +38996,7 @@
         <v>8280.5</v>
       </c>
       <c r="B4827">
-        <v>107.9347381591797</v>
+        <v>116.3307495117188</v>
       </c>
     </row>
     <row r="4828" spans="1:2">
@@ -39004,7 +39004,7 @@
         <v>8281</v>
       </c>
       <c r="B4828">
-        <v>110.0632400512695</v>
+        <v>120.9162979125977</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -39012,7 +39012,7 @@
         <v>8281.5</v>
       </c>
       <c r="B4829">
-        <v>115.9117660522461</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="4830" spans="1:2">
@@ -39020,7 +39020,7 @@
         <v>8282</v>
       </c>
       <c r="B4830">
-        <v>116.1224136352539</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -39028,7 +39028,7 @@
         <v>8282.5</v>
       </c>
       <c r="B4831">
-        <v>112.656135559082</v>
+        <v>120.9162979125977</v>
       </c>
     </row>
     <row r="4832" spans="1:2">
@@ -39036,7 +39036,7 @@
         <v>8283</v>
       </c>
       <c r="B4832">
-        <v>110.4355545043945</v>
+        <v>116.2386703491211</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39044,7 +39044,7 @@
         <v>8283.5</v>
       </c>
       <c r="B4833">
-        <v>107.7392425537109</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="4834" spans="1:2">
@@ -39052,7 +39052,7 @@
         <v>8284</v>
       </c>
       <c r="B4834">
-        <v>101.7570953369141</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4835" spans="1:2">
@@ -39060,7 +39060,7 @@
         <v>8284.5</v>
       </c>
       <c r="B4835">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39068,7 +39068,7 @@
         <v>8285</v>
       </c>
       <c r="B4836">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39076,7 +39076,7 @@
         <v>8285.5</v>
       </c>
       <c r="B4837">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39084,7 +39084,7 @@
         <v>8286</v>
       </c>
       <c r="B4838">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39092,7 +39092,7 @@
         <v>8286.5</v>
       </c>
       <c r="B4839">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4840" spans="1:2">
@@ -39100,7 +39100,7 @@
         <v>8287</v>
       </c>
       <c r="B4840">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39108,7 +39108,7 @@
         <v>8287.5</v>
       </c>
       <c r="B4841">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4842" spans="1:2">
@@ -39116,7 +39116,7 @@
         <v>8288</v>
       </c>
       <c r="B4842">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39124,7 +39124,7 @@
         <v>8288.5</v>
       </c>
       <c r="B4843">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4844" spans="1:2">
@@ -39132,7 +39132,7 @@
         <v>8289</v>
       </c>
       <c r="B4844">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4845" spans="1:2">
@@ -39140,7 +39140,7 @@
         <v>8289.5</v>
       </c>
       <c r="B4845">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4846" spans="1:2">
@@ -39148,7 +39148,7 @@
         <v>8290</v>
       </c>
       <c r="B4846">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4847" spans="1:2">
@@ -39156,7 +39156,7 @@
         <v>8290.5</v>
       </c>
       <c r="B4847">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4848" spans="1:2">
@@ -39164,7 +39164,7 @@
         <v>8291</v>
       </c>
       <c r="B4848">
-        <v>95.16973114013672</v>
+        <v>102.8358993530273</v>
       </c>
     </row>
     <row r="4849" spans="1:2">
@@ -39172,7 +39172,7 @@
         <v>8291.5</v>
       </c>
       <c r="B4849">
-        <v>94.09832763671875</v>
+        <v>100.8929443359375</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39180,7 +39180,7 @@
         <v>8292</v>
       </c>
       <c r="B4850">
-        <v>94.09832763671875</v>
+        <v>100.8929443359375</v>
       </c>
     </row>
     <row r="4851" spans="1:2">
@@ -39188,7 +39188,7 @@
         <v>8292.5</v>
       </c>
       <c r="B4851">
-        <v>93.64215087890625</v>
+        <v>103.6862182617188</v>
       </c>
     </row>
     <row r="4852" spans="1:2">
@@ -39196,7 +39196,7 @@
         <v>8293</v>
       </c>
       <c r="B4852">
-        <v>98.79405212402344</v>
+        <v>107.1953964233398</v>
       </c>
     </row>
     <row r="4853" spans="1:2">
@@ -39204,7 +39204,7 @@
         <v>8293.5</v>
       </c>
       <c r="B4853">
-        <v>106.4735946655273</v>
+        <v>111.2921600341797</v>
       </c>
     </row>
     <row r="4854" spans="1:2">
@@ -39212,7 +39212,7 @@
         <v>8294</v>
       </c>
       <c r="B4854">
-        <v>118.559684753418</v>
+        <v>117.8490447998047</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39220,7 +39220,7 @@
         <v>8294.5</v>
       </c>
       <c r="B4855">
-        <v>126.5217819213867</v>
+        <v>130.2088775634766</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39228,7 +39228,7 @@
         <v>8295</v>
       </c>
       <c r="B4856">
-        <v>123.7404708862305</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39236,7 +39236,7 @@
         <v>8295.5</v>
       </c>
       <c r="B4857">
-        <v>124.6619644165039</v>
+        <v>129.2936859130859</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39244,7 +39244,7 @@
         <v>8296</v>
       </c>
       <c r="B4858">
-        <v>120.7688217163086</v>
+        <v>130.8840789794922</v>
       </c>
     </row>
     <row r="4859" spans="1:2">
@@ -39252,7 +39252,7 @@
         <v>8296.5</v>
       </c>
       <c r="B4859">
-        <v>120.6089553833008</v>
+        <v>130.7242279052734</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39260,7 +39260,7 @@
         <v>8297</v>
       </c>
       <c r="B4860">
-        <v>118.9651107788086</v>
+        <v>129.3862762451172</v>
       </c>
     </row>
     <row r="4861" spans="1:2">
@@ -39268,7 +39268,7 @@
         <v>8297.5</v>
       </c>
       <c r="B4861">
-        <v>122.9323654174805</v>
+        <v>130.2626495361328</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39276,7 +39276,7 @@
         <v>8298</v>
       </c>
       <c r="B4862">
-        <v>121.4358291625977</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39284,7 +39284,7 @@
         <v>8298.5</v>
       </c>
       <c r="B4863">
-        <v>121.4836044311523</v>
+        <v>128.8783264160156</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39292,7 +39292,7 @@
         <v>8299</v>
       </c>
       <c r="B4864">
-        <v>117.8816604614258</v>
+        <v>128.3027954101562</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39300,7 +39300,7 @@
         <v>8299.5</v>
       </c>
       <c r="B4865">
-        <v>116.0450057983398</v>
+        <v>126.4661560058594</v>
       </c>
     </row>
     <row r="4866" spans="1:2">
@@ -39308,7 +39308,7 @@
         <v>8300</v>
       </c>
       <c r="B4866">
-        <v>116.0450057983398</v>
+        <v>126.4661560058594</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39316,7 +39316,7 @@
         <v>8300.5</v>
       </c>
       <c r="B4867">
-        <v>120.473258972168</v>
+        <v>127.8034973144531</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39324,7 +39324,7 @@
         <v>8301</v>
       </c>
       <c r="B4868">
-        <v>117.874626159668</v>
+        <v>128.2957611083984</v>
       </c>
     </row>
     <row r="4869" spans="1:2">
@@ -39332,7 +39332,7 @@
         <v>8301.5</v>
       </c>
       <c r="B4869">
-        <v>115.7846145629883</v>
+        <v>126.2057647705078</v>
       </c>
     </row>
     <row r="4870" spans="1:2">
@@ -39340,7 +39340,7 @@
         <v>8302</v>
       </c>
       <c r="B4870">
-        <v>109.5177993774414</v>
+        <v>117.9138107299805</v>
       </c>
     </row>
     <row r="4871" spans="1:2">
@@ -39348,7 +39348,7 @@
         <v>8302.5</v>
       </c>
       <c r="B4871">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39356,7 +39356,7 @@
         <v>8303</v>
       </c>
       <c r="B4872">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39364,7 +39364,7 @@
         <v>8303.5</v>
       </c>
       <c r="B4873">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4874" spans="1:2">
@@ -39372,7 +39372,7 @@
         <v>8304</v>
       </c>
       <c r="B4874">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4875" spans="1:2">
@@ -39380,7 +39380,7 @@
         <v>8304.5</v>
       </c>
       <c r="B4875">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4876" spans="1:2">
@@ -39388,7 +39388,7 @@
         <v>8305</v>
       </c>
       <c r="B4876">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4877" spans="1:2">
@@ -39396,7 +39396,7 @@
         <v>8305.5</v>
       </c>
       <c r="B4877">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39404,7 +39404,7 @@
         <v>8306</v>
       </c>
       <c r="B4878">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39412,7 +39412,7 @@
         <v>8306.5</v>
       </c>
       <c r="B4879">
-        <v>97.52706909179688</v>
+        <v>105.7080841064453</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39420,7 +39420,7 @@
         <v>8307</v>
       </c>
       <c r="B4880">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39428,7 +39428,7 @@
         <v>8307.5</v>
       </c>
       <c r="B4881">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39436,7 +39436,7 @@
         <v>8308</v>
       </c>
       <c r="B4882">
-        <v>101.5464477539062</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39444,7 +39444,7 @@
         <v>8308.5</v>
       </c>
       <c r="B4883">
-        <v>109.0800552368164</v>
+        <v>115.1035003662109</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39452,7 +39452,7 @@
         <v>8309</v>
       </c>
       <c r="B4884">
-        <v>114.2207107543945</v>
+        <v>117.1532592773438</v>
       </c>
     </row>
     <row r="4885" spans="1:2">
@@ -39460,7 +39460,7 @@
         <v>8309.5</v>
       </c>
       <c r="B4885">
-        <v>116.5271987915039</v>
+        <v>119.5241851806641</v>
       </c>
     </row>
     <row r="4886" spans="1:2">
@@ -39468,7 +39468,7 @@
         <v>8310</v>
       </c>
       <c r="B4886">
-        <v>117.0069808959961</v>
+        <v>122.3965759277344</v>
       </c>
     </row>
     <row r="4887" spans="1:2">
@@ -39476,7 +39476,7 @@
         <v>8310.5</v>
       </c>
       <c r="B4887">
-        <v>117.3893966674805</v>
+        <v>127.8105316162109</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39484,7 +39484,7 @@
         <v>8311</v>
       </c>
       <c r="B4888">
-        <v>111.9247360229492</v>
+        <v>124.7184524536133</v>
       </c>
     </row>
     <row r="4889" spans="1:2">
@@ -39492,7 +39492,7 @@
         <v>8311.5</v>
       </c>
       <c r="B4889">
-        <v>112.4763565063477</v>
+        <v>118.490119934082</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39500,7 +39500,7 @@
         <v>8312</v>
       </c>
       <c r="B4890">
-        <v>107.5038757324219</v>
+        <v>113.3069915771484</v>
       </c>
     </row>
     <row r="4891" spans="1:2">
@@ -39508,7 +39508,7 @@
         <v>8312.5</v>
       </c>
       <c r="B4891">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39516,7 +39516,7 @@
         <v>8313</v>
       </c>
       <c r="B4892">
-        <v>96.63003540039062</v>
+        <v>104.8110504150391</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39524,7 +39524,7 @@
         <v>8313.5</v>
       </c>
       <c r="B4893">
-        <v>94.02925872802734</v>
+        <v>101.6954193115234</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39532,7 +39532,7 @@
         <v>8314</v>
       </c>
       <c r="B4894">
-        <v>92.78741455078125</v>
+        <v>99.58202362060547</v>
       </c>
     </row>
     <row r="4895" spans="1:2">
@@ -39540,7 +39540,7 @@
         <v>8314.5</v>
       </c>
       <c r="B4895">
-        <v>91.89642333984375</v>
+        <v>98.69103240966797</v>
       </c>
     </row>
     <row r="4896" spans="1:2">
@@ -39548,7 +39548,7 @@
         <v>8315</v>
       </c>
       <c r="B4896">
-        <v>91.53599548339844</v>
+        <v>98.33060455322266</v>
       </c>
     </row>
     <row r="4897" spans="1:2">
@@ -39556,7 +39556,7 @@
         <v>8315.5</v>
       </c>
       <c r="B4897">
-        <v>91.03311157226562</v>
+        <v>97.82772827148438</v>
       </c>
     </row>
     <row r="4898" spans="1:2">
@@ -39564,7 +39564,7 @@
         <v>8316</v>
       </c>
       <c r="B4898">
-        <v>86.68110656738281</v>
+        <v>96.99675750732422</v>
       </c>
     </row>
     <row r="4899" spans="1:2">
@@ -39572,7 +39572,7 @@
         <v>8316.5</v>
       </c>
       <c r="B4899">
-        <v>94.89071655273438</v>
+        <v>101.6853256225586</v>
       </c>
     </row>
     <row r="4900" spans="1:2">
@@ -39580,7 +39580,7 @@
         <v>8317</v>
       </c>
       <c r="B4900">
-        <v>90.51254272460938</v>
+        <v>97.30715179443359</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39588,7 +39588,7 @@
         <v>8317.5</v>
       </c>
       <c r="B4901">
-        <v>92.42698669433594</v>
+        <v>99.22159576416016</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39596,7 +39596,7 @@
         <v>8318</v>
       </c>
       <c r="B4902">
-        <v>92.33123779296875</v>
+        <v>102.3752975463867</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39604,7 +39604,7 @@
         <v>8318.5</v>
       </c>
       <c r="B4903">
-        <v>93.20637512207031</v>
+        <v>103.2504425048828</v>
       </c>
     </row>
     <row r="4904" spans="1:2">
@@ -39612,7 +39612,7 @@
         <v>8319</v>
       </c>
       <c r="B4904">
-        <v>93.22952270507812</v>
+        <v>103.2735748291016</v>
       </c>
     </row>
     <row r="4905" spans="1:2">
@@ -39620,7 +39620,7 @@
         <v>8319.5</v>
       </c>
       <c r="B4905">
-        <v>93.36902618408203</v>
+        <v>101.0351867675781</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39628,7 +39628,7 @@
         <v>8320</v>
       </c>
       <c r="B4906">
-        <v>93.70758056640625</v>
+        <v>100.502197265625</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39636,7 +39636,7 @@
         <v>8320.5</v>
       </c>
       <c r="B4907">
-        <v>93.70758056640625</v>
+        <v>100.502197265625</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39644,7 +39644,7 @@
         <v>8321</v>
       </c>
       <c r="B4908">
-        <v>94.31369018554688</v>
+        <v>101.1083068847656</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39652,7 +39652,7 @@
         <v>8321.5</v>
       </c>
       <c r="B4909">
-        <v>93.70758056640625</v>
+        <v>100.502197265625</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39660,7 +39660,7 @@
         <v>8322</v>
       </c>
       <c r="B4910">
-        <v>93.70758056640625</v>
+        <v>100.502197265625</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39668,7 +39668,7 @@
         <v>8322.5</v>
       </c>
       <c r="B4911">
-        <v>94.70443725585938</v>
+        <v>101.4990539550781</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39676,7 +39676,7 @@
         <v>8323</v>
       </c>
       <c r="B4912">
-        <v>95.63384246826172</v>
+        <v>102.4284591674805</v>
       </c>
     </row>
     <row r="4913" spans="1:2">
@@ -39684,7 +39684,7 @@
         <v>8323.5</v>
       </c>
       <c r="B4913">
-        <v>94.05934906005859</v>
+        <v>102.7170181274414</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39692,7 +39692,7 @@
         <v>8324</v>
       </c>
       <c r="B4914">
-        <v>94.05934906005859</v>
+        <v>102.7170181274414</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39700,7 +39700,7 @@
         <v>8324.5</v>
       </c>
       <c r="B4915">
-        <v>95.26591491699219</v>
+        <v>102.9320831298828</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39708,7 +39708,7 @@
         <v>8325</v>
       </c>
       <c r="B4916">
-        <v>93.91590881347656</v>
+        <v>104.1706085205078</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39716,7 +39716,7 @@
         <v>8325.5</v>
       </c>
       <c r="B4917">
-        <v>93.76959228515625</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4918" spans="1:2">
@@ -39724,7 +39724,7 @@
         <v>8326</v>
       </c>
       <c r="B4918">
-        <v>99.71878051757812</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4919" spans="1:2">
@@ -39732,7 +39732,7 @@
         <v>8326.5</v>
       </c>
       <c r="B4919">
-        <v>99.71878051757812</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39740,7 +39740,7 @@
         <v>8327</v>
       </c>
       <c r="B4920">
-        <v>99.16419982910156</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39748,7 +39748,7 @@
         <v>8327.5</v>
       </c>
       <c r="B4921">
-        <v>102.663818359375</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4922" spans="1:2">
@@ -39756,7 +39756,7 @@
         <v>8328</v>
       </c>
       <c r="B4922">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4923" spans="1:2">
@@ -39764,7 +39764,7 @@
         <v>8328.5</v>
       </c>
       <c r="B4923">
-        <v>102.243034362793</v>
+        <v>109.8677291870117</v>
       </c>
     </row>
     <row r="4924" spans="1:2">
@@ -39772,7 +39772,7 @@
         <v>8329</v>
       </c>
       <c r="B4924">
-        <v>102.5430297851562</v>
+        <v>110.167724609375</v>
       </c>
     </row>
     <row r="4925" spans="1:2">
@@ -39780,7 +39780,7 @@
         <v>8329.5</v>
       </c>
       <c r="B4925">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39788,7 +39788,7 @@
         <v>8330</v>
       </c>
       <c r="B4926">
-        <v>99.43235778808594</v>
+        <v>109.4349517822266</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39796,7 +39796,7 @@
         <v>8330.5</v>
       </c>
       <c r="B4927">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39804,7 +39804,7 @@
         <v>8331</v>
       </c>
       <c r="B4928">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39812,7 +39812,7 @@
         <v>8331.5</v>
       </c>
       <c r="B4929">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39820,7 +39820,7 @@
         <v>8332</v>
       </c>
       <c r="B4930">
-        <v>102.5430297851562</v>
+        <v>110.167724609375</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39828,7 +39828,7 @@
         <v>8332.5</v>
       </c>
       <c r="B4931">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39836,7 +39836,7 @@
         <v>8333</v>
       </c>
       <c r="B4932">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39844,7 +39844,7 @@
         <v>8333.5</v>
       </c>
       <c r="B4933">
-        <v>101.7570953369141</v>
+        <v>109.3817901611328</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39852,7 +39852,7 @@
         <v>8334</v>
       </c>
       <c r="B4934">
-        <v>102.243034362793</v>
+        <v>109.8677291870117</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39860,7 +39860,7 @@
         <v>8334.5</v>
       </c>
       <c r="B4935">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39868,7 +39868,7 @@
         <v>8335</v>
       </c>
       <c r="B4936">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4937" spans="1:2">
@@ -39876,7 +39876,7 @@
         <v>8335.5</v>
       </c>
       <c r="B4937">
-        <v>98.98483276367188</v>
+        <v>108.9874267578125</v>
       </c>
     </row>
     <row r="4938" spans="1:2">
@@ -39884,7 +39884,7 @@
         <v>8336</v>
       </c>
       <c r="B4938">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4939" spans="1:2">
@@ -39892,7 +39892,7 @@
         <v>8336.5</v>
       </c>
       <c r="B4939">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39900,7 +39900,7 @@
         <v>8337</v>
       </c>
       <c r="B4940">
-        <v>99.43235778808594</v>
+        <v>109.4349517822266</v>
       </c>
     </row>
     <row r="4941" spans="1:2">
@@ -39908,7 +39908,7 @@
         <v>8337.5</v>
       </c>
       <c r="B4941">
-        <v>96.36248779296875</v>
+        <v>106.3650817871094</v>
       </c>
     </row>
     <row r="4942" spans="1:2">
@@ -39916,7 +39916,7 @@
         <v>8338</v>
       </c>
       <c r="B4942">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4943" spans="1:2">
@@ -39924,7 +39924,7 @@
         <v>8338.5</v>
       </c>
       <c r="B4943">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39932,7 +39932,7 @@
         <v>8339</v>
       </c>
       <c r="B4944">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4945" spans="1:2">
@@ -39940,7 +39940,7 @@
         <v>8339.5</v>
       </c>
       <c r="B4945">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4946" spans="1:2">
@@ -39948,7 +39948,7 @@
         <v>8340</v>
       </c>
       <c r="B4946">
-        <v>110.3169860839844</v>
+        <v>116.3307495117188</v>
       </c>
     </row>
     <row r="4947" spans="1:2">
@@ -39956,7 +39956,7 @@
         <v>8340.5</v>
       </c>
       <c r="B4947">
-        <v>110.4355545043945</v>
+        <v>116.2386703491211</v>
       </c>
     </row>
     <row r="4948" spans="1:2">
@@ -39964,7 +39964,7 @@
         <v>8341</v>
       </c>
       <c r="B4948">
-        <v>109.6919937133789</v>
+        <v>115.4951095581055</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -39972,7 +39972,7 @@
         <v>8341.5</v>
       </c>
       <c r="B4949">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -39980,7 +39980,7 @@
         <v>8342</v>
       </c>
       <c r="B4950">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -39988,7 +39988,7 @@
         <v>8342.5</v>
       </c>
       <c r="B4951">
-        <v>107.0990982055664</v>
+        <v>115.4951095581055</v>
       </c>
     </row>
     <row r="4952" spans="1:2">
@@ -39996,7 +39996,7 @@
         <v>8343</v>
       </c>
       <c r="B4952">
-        <v>107.842658996582</v>
+        <v>116.5155029296875</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -40004,7 +40004,7 @@
         <v>8343.5</v>
       </c>
       <c r="B4953">
-        <v>107.842658996582</v>
+        <v>116.2386703491211</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40012,7 +40012,7 @@
         <v>8344</v>
       </c>
       <c r="B4954">
-        <v>108.6898574829102</v>
+        <v>117.0858688354492</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -40020,7 +40020,7 @@
         <v>8344.5</v>
       </c>
       <c r="B4955">
-        <v>110.5508041381836</v>
+        <v>121.4038619995117</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -40028,7 +40028,7 @@
         <v>8345</v>
       </c>
       <c r="B4956">
-        <v>102.0275192260742</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40036,7 +40036,7 @@
         <v>8345.5</v>
       </c>
       <c r="B4957">
-        <v>109.6919937133789</v>
+        <v>115.4951095581055</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40044,7 +40044,7 @@
         <v>8346</v>
       </c>
       <c r="B4958">
-        <v>104.9456634521484</v>
+        <v>112.5703582763672</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40052,7 +40052,7 @@
         <v>8346.5</v>
       </c>
       <c r="B4959">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40060,7 +40060,7 @@
         <v>8347</v>
       </c>
       <c r="B4960">
-        <v>102.3116760253906</v>
+        <v>109.9363708496094</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40068,7 +40068,7 @@
         <v>8347.5</v>
       </c>
       <c r="B4961">
-        <v>102.8744659423828</v>
+        <v>110.4991607666016</v>
       </c>
     </row>
     <row r="4962" spans="1:2">
@@ -40076,7 +40076,7 @@
         <v>8348</v>
       </c>
       <c r="B4962">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4963" spans="1:2">
@@ -40084,7 +40084,7 @@
         <v>8348.5</v>
       </c>
       <c r="B4963">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40092,7 +40092,7 @@
         <v>8349</v>
       </c>
       <c r="B4964">
-        <v>108.6504516601562</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4965" spans="1:2">
@@ -40100,7 +40100,7 @@
         <v>8349.5</v>
       </c>
       <c r="B4965">
-        <v>108.4398040771484</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="4966" spans="1:2">
@@ -40108,7 +40108,7 @@
         <v>8350</v>
       </c>
       <c r="B4966">
-        <v>100.2665863037109</v>
+        <v>116.3307495117188</v>
       </c>
     </row>
     <row r="4967" spans="1:2">
@@ -40116,7 +40116,7 @@
         <v>8350.5</v>
       </c>
       <c r="B4967">
-        <v>112.6235656738281</v>
+        <v>118.6470108032227</v>
       </c>
     </row>
     <row r="4968" spans="1:2">
@@ -40124,7 +40124,7 @@
         <v>8351</v>
       </c>
       <c r="B4968">
-        <v>113.555549621582</v>
+        <v>119.5789947509766</v>
       </c>
     </row>
     <row r="4969" spans="1:2">
@@ -40132,7 +40132,7 @@
         <v>8351.5</v>
       </c>
       <c r="B4969">
-        <v>113.9231185913086</v>
+        <v>122.4036102294922</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40140,7 +40140,7 @@
         <v>8352</v>
       </c>
       <c r="B4970">
-        <v>116.0450057983398</v>
+        <v>126.4661560058594</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40148,7 +40148,7 @@
         <v>8352.5</v>
       </c>
       <c r="B4971">
-        <v>116.1188354492188</v>
+        <v>126.5399856567383</v>
       </c>
     </row>
     <row r="4972" spans="1:2">
@@ -40156,7 +40156,7 @@
         <v>8353</v>
       </c>
       <c r="B4972">
-        <v>116.1188354492188</v>
+        <v>126.5399856567383</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40164,7 +40164,7 @@
         <v>8353.5</v>
       </c>
       <c r="B4973">
-        <v>116.0450057983398</v>
+        <v>126.4661560058594</v>
       </c>
     </row>
     <row r="4974" spans="1:2">
@@ -40172,7 +40172,7 @@
         <v>8354</v>
       </c>
       <c r="B4974">
-        <v>116.0450057983398</v>
+        <v>126.4661560058594</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40180,7 +40180,7 @@
         <v>8354.5</v>
       </c>
       <c r="B4975">
-        <v>116.0450057983398</v>
+        <v>126.4661560058594</v>
       </c>
     </row>
     <row r="4976" spans="1:2">
@@ -40188,7 +40188,7 @@
         <v>8355</v>
       </c>
       <c r="B4976">
-        <v>115.7846145629883</v>
+        <v>126.2057647705078</v>
       </c>
     </row>
     <row r="4977" spans="1:2">
@@ -40196,7 +40196,7 @@
         <v>8355.5</v>
       </c>
       <c r="B4977">
-        <v>117.3893966674805</v>
+        <v>127.8105316162109</v>
       </c>
     </row>
     <row r="4978" spans="1:2">
@@ -40204,7 +40204,7 @@
         <v>8356</v>
       </c>
       <c r="B4978">
-        <v>117.874626159668</v>
+        <v>128.2957611083984</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40212,7 +40212,7 @@
         <v>8356.5</v>
       </c>
       <c r="B4979">
-        <v>120.9655227661133</v>
+        <v>128.2957611083984</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40220,7 +40220,7 @@
         <v>8357</v>
       </c>
       <c r="B4980">
-        <v>117.8816604614258</v>
+        <v>128.3027954101562</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40228,7 +40228,7 @@
         <v>8357.5</v>
       </c>
       <c r="B4981">
-        <v>117.4632263183594</v>
+        <v>127.8843536376953</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40236,7 +40236,7 @@
         <v>8358</v>
       </c>
       <c r="B4982">
-        <v>110.0632400512695</v>
+        <v>120.9162979125977</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40244,7 +40244,7 @@
         <v>8358.5</v>
       </c>
       <c r="B4983">
-        <v>111.9000473022461</v>
+        <v>117.9138107299805</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40252,7 +40252,7 @@
         <v>8359</v>
       </c>
       <c r="B4984">
-        <v>113.6293792724609</v>
+        <v>119.6528244018555</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40260,7 +40260,7 @@
         <v>8359.5</v>
       </c>
       <c r="B4985">
-        <v>118.0918655395508</v>
+        <v>125.4865570068359</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40268,7 +40268,7 @@
         <v>8360</v>
       </c>
       <c r="B4986">
-        <v>124.0686721801758</v>
+        <v>127.7556991577148</v>
       </c>
     </row>
     <row r="4987" spans="1:2">
@@ -40276,7 +40276,7 @@
         <v>8360.5</v>
       </c>
       <c r="B4987">
-        <v>125.4799880981445</v>
+        <v>129.1670684814453</v>
       </c>
     </row>
     <row r="4988" spans="1:2">
@@ -40284,7 +40284,7 @@
         <v>8361</v>
       </c>
       <c r="B4988">
-        <v>121.9367599487305</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="4989" spans="1:2">
@@ -40292,7 +40292,7 @@
         <v>8361.5</v>
       </c>
       <c r="B4989">
-        <v>121.4776229858398</v>
+        <v>128.8723449707031</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40300,7 +40300,7 @@
         <v>8362</v>
       </c>
       <c r="B4990">
-        <v>120.473258972168</v>
+        <v>127.8034973144531</v>
       </c>
     </row>
     <row r="4991" spans="1:2">
@@ -40308,7 +40308,7 @@
         <v>8362.5</v>
       </c>
       <c r="B4991">
-        <v>115.0654067993164</v>
+        <v>125.4865570068359</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40316,7 +40316,7 @@
         <v>8363</v>
       </c>
       <c r="B4992">
-        <v>116.037971496582</v>
+        <v>126.4591217041016</v>
       </c>
     </row>
     <row r="4993" spans="1:2">
@@ -40324,7 +40324,7 @@
         <v>8363.5</v>
       </c>
       <c r="B4993">
-        <v>117.3823623657227</v>
+        <v>127.8034973144531</v>
       </c>
     </row>
     <row r="4994" spans="1:2">
@@ -40332,7 +40332,7 @@
         <v>8364</v>
       </c>
       <c r="B4994">
-        <v>120.473258972168</v>
+        <v>127.8034973144531</v>
       </c>
     </row>
     <row r="4995" spans="1:2">
@@ -40340,7 +40340,7 @@
         <v>8364.5</v>
       </c>
       <c r="B4995">
-        <v>121.4776229858398</v>
+        <v>128.8723449707031</v>
       </c>
     </row>
     <row r="4996" spans="1:2">
@@ -40348,7 +40348,7 @@
         <v>8365</v>
       </c>
       <c r="B4996">
-        <v>121.4358291625977</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="4997" spans="1:2">
@@ -40356,7 +40356,7 @@
         <v>8365.5</v>
       </c>
       <c r="B4997">
-        <v>121.4358291625977</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="4998" spans="1:2">
@@ -40364,7 +40364,7 @@
         <v>8366</v>
       </c>
       <c r="B4998">
-        <v>121.7723617553711</v>
+        <v>129.1670684814453</v>
       </c>
     </row>
     <row r="4999" spans="1:2">
@@ -40372,7 +40372,7 @@
         <v>8366.5</v>
       </c>
       <c r="B4999">
-        <v>125.6443710327148</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="5000" spans="1:2">
@@ -40380,7 +40380,7 @@
         <v>8367</v>
       </c>
       <c r="B5000">
-        <v>126.3019943237305</v>
+        <v>130.6694030761719</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40388,7 +40388,7 @@
         <v>8367.5</v>
       </c>
       <c r="B5001">
-        <v>126.4618606567383</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="5002" spans="1:2">
@@ -40396,7 +40396,7 @@
         <v>8368</v>
       </c>
       <c r="B5002">
-        <v>126.4618606567383</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40404,7 +40404,7 @@
         <v>8368.5</v>
       </c>
       <c r="B5003">
-        <v>121.9367599487305</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40412,7 +40412,7 @@
         <v>8369</v>
       </c>
       <c r="B5004">
-        <v>121.4358291625977</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40420,7 +40420,7 @@
         <v>8369.5</v>
       </c>
       <c r="B5005">
-        <v>120.473258972168</v>
+        <v>127.8034973144531</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40428,7 +40428,7 @@
         <v>8370</v>
       </c>
       <c r="B5006">
-        <v>120.473258972168</v>
+        <v>127.8034973144531</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40436,7 +40436,7 @@
         <v>8370.5</v>
       </c>
       <c r="B5007">
-        <v>120.3610458374023</v>
+        <v>127.7556991577148</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40444,7 +40444,7 @@
         <v>8371</v>
       </c>
       <c r="B5008">
-        <v>123.0824356079102</v>
+        <v>127.7556991577148</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40452,7 +40452,7 @@
         <v>8371.5</v>
       </c>
       <c r="B5009">
-        <v>122.8951797485352</v>
+        <v>127.7556991577148</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40460,7 +40460,7 @@
         <v>8372</v>
       </c>
       <c r="B5010">
-        <v>123.3874435424805</v>
+        <v>128.2479705810547</v>
       </c>
     </row>
     <row r="5011" spans="1:2">
@@ -40468,7 +40468,7 @@
         <v>8372.5</v>
       </c>
       <c r="B5011">
-        <v>123.9699630737305</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="5012" spans="1:2">
@@ -40476,7 +40476,7 @@
         <v>8373</v>
       </c>
       <c r="B5012">
-        <v>124.1572189331055</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="5013" spans="1:2">
@@ -40484,7 +40484,7 @@
         <v>8373.5</v>
       </c>
       <c r="B5013">
-        <v>123.0824356079102</v>
+        <v>127.7556991577148</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40492,7 +40492,7 @@
         <v>8374</v>
       </c>
       <c r="B5014">
-        <v>121.5945510864258</v>
+        <v>124.3271942138672</v>
       </c>
     </row>
     <row r="5015" spans="1:2">
@@ -40500,7 +40500,7 @@
         <v>8374.5</v>
       </c>
       <c r="B5015">
-        <v>120.1037216186523</v>
+        <v>122.8363647460938</v>
       </c>
     </row>
     <row r="5016" spans="1:2">
@@ -40508,7 +40508,7 @@
         <v>8375</v>
       </c>
       <c r="B5016">
-        <v>119.6161575317383</v>
+        <v>122.3488006591797</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40516,7 +40516,7 @@
         <v>8375.5</v>
       </c>
       <c r="B5017">
-        <v>122.8951797485352</v>
+        <v>127.7556991577148</v>
       </c>
     </row>
     <row r="5018" spans="1:2">
@@ -40524,7 +40524,7 @@
         <v>8376</v>
       </c>
       <c r="B5018">
-        <v>123.963981628418</v>
+        <v>128.8245544433594</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40532,7 +40532,7 @@
         <v>8376.5</v>
       </c>
       <c r="B5019">
-        <v>123.9699630737305</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="5020" spans="1:2">
@@ -40540,7 +40540,7 @@
         <v>8377</v>
       </c>
       <c r="B5020">
-        <v>125.6514205932617</v>
+        <v>130.5119934082031</v>
       </c>
     </row>
     <row r="5021" spans="1:2">
@@ -40548,7 +40548,7 @@
         <v>8377.5</v>
       </c>
       <c r="B5021">
-        <v>124.3064956665039</v>
+        <v>129.1670684814453</v>
       </c>
     </row>
     <row r="5022" spans="1:2">
@@ -40556,7 +40556,7 @@
         <v>8378</v>
       </c>
       <c r="B5022">
-        <v>124.2253189086914</v>
+        <v>129.0858917236328</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40564,7 +40564,7 @@
         <v>8378.5</v>
       </c>
       <c r="B5023">
-        <v>124.4708938598633</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="5024" spans="1:2">
@@ -40572,7 +40572,7 @@
         <v>8379</v>
       </c>
       <c r="B5024">
-        <v>124.4708938598633</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40580,7 +40580,7 @@
         <v>8379.5</v>
       </c>
       <c r="B5025">
-        <v>126.1147384643555</v>
+        <v>130.6694030761719</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40588,7 +40588,7 @@
         <v>8380</v>
       </c>
       <c r="B5026">
-        <v>126.1147384643555</v>
+        <v>130.6694030761719</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40596,7 +40596,7 @@
         <v>8380.5</v>
       </c>
       <c r="B5027">
-        <v>124.4708938598633</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40604,7 +40604,7 @@
         <v>8381</v>
       </c>
       <c r="B5028">
-        <v>124.4708938598633</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40612,7 +40612,7 @@
         <v>8381.5</v>
       </c>
       <c r="B5029">
-        <v>124.2253189086914</v>
+        <v>129.0858917236328</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40620,7 +40620,7 @@
         <v>8382</v>
       </c>
       <c r="B5030">
-        <v>124.2253189086914</v>
+        <v>129.0858917236328</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40628,7 +40628,7 @@
         <v>8382.5</v>
       </c>
       <c r="B5031">
-        <v>125.6443710327148</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40636,7 +40636,7 @@
         <v>8383</v>
       </c>
       <c r="B5032">
-        <v>121.9367599487305</v>
+        <v>129.3314514160156</v>
       </c>
     </row>
     <row r="5033" spans="1:2">
@@ -40644,7 +40644,7 @@
         <v>8383.5</v>
       </c>
       <c r="B5033">
-        <v>118.7125015258789</v>
+        <v>129.1336822509766</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40652,7 +40652,7 @@
         <v>8384</v>
       </c>
       <c r="B5034">
-        <v>120.145637512207</v>
+        <v>130.5668182373047</v>
       </c>
     </row>
     <row r="5035" spans="1:2">
@@ -40660,7 +40660,7 @@
         <v>8384.5</v>
       </c>
       <c r="B5035">
-        <v>118.4641799926758</v>
+        <v>128.8853607177734</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40668,7 +40668,7 @@
         <v>8385</v>
       </c>
       <c r="B5036">
-        <v>113.5295181274414</v>
+        <v>126.3232192993164</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40676,7 +40676,7 @@
         <v>8385.5</v>
       </c>
       <c r="B5037">
-        <v>109.695671081543</v>
+        <v>118.091682434082</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40684,7 +40684,7 @@
         <v>8386</v>
       </c>
       <c r="B5038">
-        <v>98.389404296875</v>
+        <v>114.4535675048828</v>
       </c>
     </row>
     <row r="5039" spans="1:2">
@@ -40692,7 +40692,7 @@
         <v>8386.5</v>
       </c>
       <c r="B5039">
-        <v>105.1463470458984</v>
+        <v>113.5423583984375</v>
       </c>
     </row>
     <row r="5040" spans="1:2">
@@ -40700,7 +40700,7 @@
         <v>8387</v>
       </c>
       <c r="B5040">
-        <v>109.9174346923828</v>
+        <v>115.9408798217773</v>
       </c>
     </row>
     <row r="5041" spans="1:2">
@@ -40708,7 +40708,7 @@
         <v>8387.5</v>
       </c>
       <c r="B5041">
-        <v>115.8114700317383</v>
+        <v>118.7440185546875</v>
       </c>
     </row>
     <row r="5042" spans="1:2">
@@ -40716,7 +40716,7 @@
         <v>8388</v>
       </c>
       <c r="B5042">
-        <v>119.8457260131836</v>
+        <v>125.2997589111328</v>
       </c>
     </row>
     <row r="5043" spans="1:2">
@@ -40724,7 +40724,7 @@
         <v>8388.5</v>
       </c>
       <c r="B5043">
-        <v>124.1572189331055</v>
+        <v>128.8305358886719</v>
       </c>
     </row>
     <row r="5044" spans="1:2">
@@ -40732,7 +40732,7 @@
         <v>8389</v>
       </c>
       <c r="B5044">
-        <v>124.4125747680664</v>
+        <v>129.0858917236328</v>
       </c>
     </row>
     <row r="5045" spans="1:2">
@@ -40740,7 +40740,7 @@
         <v>8389.5</v>
       </c>
       <c r="B5045">
-        <v>126.1147384643555</v>
+        <v>130.6694030761719</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40748,7 +40748,7 @@
         <v>8390</v>
       </c>
       <c r="B5046">
-        <v>126.2746047973633</v>
+        <v>130.8292541503906</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40756,7 +40756,7 @@
         <v>8390.5</v>
       </c>
       <c r="B5047">
-        <v>122.2467575073242</v>
+        <v>129.8171234130859</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40764,7 +40764,7 @@
         <v>8391</v>
       </c>
       <c r="B5048">
-        <v>122.9844741821289</v>
+        <v>129.6486206054688</v>
       </c>
     </row>
     <row r="5049" spans="1:2">
@@ -40772,7 +40772,7 @@
         <v>8391.5</v>
       </c>
       <c r="B5049">
-        <v>128.0908355712891</v>
+        <v>134.7549743652344</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40780,7 +40780,7 @@
         <v>8392</v>
       </c>
       <c r="B5050">
-        <v>127.7522430419922</v>
+        <v>134.4164123535156</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40788,7 +40788,7 @@
         <v>8392.5</v>
       </c>
       <c r="B5051">
-        <v>129.6708526611328</v>
+        <v>136.3349609375</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -40796,7 +40796,7 @@
         <v>8393</v>
       </c>
       <c r="B5052">
-        <v>129.6708526611328</v>
+        <v>136.3349609375</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40804,7 +40804,7 @@
         <v>8393.5</v>
       </c>
       <c r="B5053">
-        <v>120.1579971313477</v>
+        <v>126.8221054077148</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40812,7 +40812,7 @@
         <v>8394</v>
       </c>
       <c r="B5054">
-        <v>121.4538345336914</v>
+        <v>128.1180419921875</v>
       </c>
     </row>
     <row r="5055" spans="1:2">
@@ -40820,7 +40820,7 @@
         <v>8394.5</v>
       </c>
       <c r="B5055">
-        <v>121.3712539672852</v>
+        <v>128.0354614257812</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40828,7 +40828,7 @@
         <v>8395</v>
       </c>
       <c r="B5056">
-        <v>124.496711730957</v>
+        <v>130.5959930419922</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -40836,7 +40836,7 @@
         <v>8395.5</v>
       </c>
       <c r="B5057">
-        <v>129.5482635498047</v>
+        <v>130.5959930419922</v>
       </c>
     </row>
     <row r="5058" spans="1:2">
@@ -40844,7 +40844,7 @@
         <v>8396</v>
       </c>
       <c r="B5058">
-        <v>129.9540405273438</v>
+        <v>131.0017700195312</v>
       </c>
     </row>
     <row r="5059" spans="1:2">
@@ -40852,7 +40852,7 @@
         <v>8396.5</v>
       </c>
       <c r="B5059">
-        <v>125.880241394043</v>
+        <v>131.3251495361328</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -40860,7 +40860,7 @@
         <v>8397</v>
       </c>
       <c r="B5060">
-        <v>135.3448333740234</v>
+        <v>140.7897033691406</v>
       </c>
     </row>
     <row r="5061" spans="1:2">
@@ -40868,7 +40868,7 @@
         <v>8397.5</v>
       </c>
       <c r="B5061">
-        <v>131.054443359375</v>
+        <v>138.0176086425781</v>
       </c>
     </row>
     <row r="5062" spans="1:2">
@@ -40876,7 +40876,7 @@
         <v>8398</v>
       </c>
       <c r="B5062">
-        <v>129.2745513916016</v>
+        <v>136.2377014160156</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -40884,7 +40884,7 @@
         <v>8398.5</v>
       </c>
       <c r="B5063">
-        <v>128.9359741210938</v>
+        <v>135.8991394042969</v>
       </c>
     </row>
     <row r="5064" spans="1:2">
@@ -40892,7 +40892,7 @@
         <v>8399</v>
       </c>
       <c r="B5064">
-        <v>116.5027389526367</v>
+        <v>123.4658966064453</v>
       </c>
     </row>
     <row r="5065" spans="1:2">
@@ -40900,7 +40900,7 @@
         <v>8399.5</v>
       </c>
       <c r="B5065">
-        <v>124.2888946533203</v>
+        <v>130.6871490478516</v>
       </c>
     </row>
     <row r="5066" spans="1:2">
@@ -40908,7 +40908,7 @@
         <v>8400</v>
       </c>
       <c r="B5066">
-        <v>124.2396545410156</v>
+        <v>130.6379089355469</v>
       </c>
     </row>
     <row r="5067" spans="1:2">
@@ -40916,7 +40916,7 @@
         <v>8400.5</v>
       </c>
       <c r="B5067">
-        <v>126.3509063720703</v>
+        <v>130.6871490478516</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -40924,7 +40924,7 @@
         <v>8401</v>
       </c>
       <c r="B5068">
-        <v>126.3509063720703</v>
+        <v>130.6871490478516</v>
       </c>
     </row>
     <row r="5069" spans="1:2">
@@ -40932,7 +40932,7 @@
         <v>8401.5</v>
       </c>
       <c r="B5069">
-        <v>125.13671875</v>
+        <v>125.607421875</v>
       </c>
     </row>
     <row r="5070" spans="1:2">
@@ -40940,7 +40940,7 @@
         <v>8402</v>
       </c>
       <c r="B5070">
-        <v>126.1101379394531</v>
+        <v>125.607421875</v>
       </c>
     </row>
     <row r="5071" spans="1:2">
@@ -40948,7 +40948,7 @@
         <v>8402.5</v>
       </c>
       <c r="B5071">
-        <v>123.7051849365234</v>
+        <v>124.1758880615234</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40956,7 +40956,7 @@
         <v>8403</v>
       </c>
       <c r="B5072">
-        <v>126.1101379394531</v>
+        <v>125.607421875</v>
       </c>
     </row>
     <row r="5073" spans="1:2">
@@ -40964,7 +40964,7 @@
         <v>8403.5</v>
       </c>
       <c r="B5073">
-        <v>126.3509063720703</v>
+        <v>130.6871490478516</v>
       </c>
     </row>
     <row r="5074" spans="1:2">
@@ -40972,7 +40972,7 @@
         <v>8404</v>
       </c>
       <c r="B5074">
-        <v>143.2356414794922</v>
+        <v>147.5718231201172</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -40980,7 +40980,7 @@
         <v>8404.5</v>
       </c>
       <c r="B5075">
-        <v>143.2848815917969</v>
+        <v>147.6210632324219</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -40988,7 +40988,7 @@
         <v>8405</v>
       </c>
       <c r="B5076">
-        <v>143.0441131591797</v>
+        <v>142.5413665771484</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -40996,7 +40996,7 @@
         <v>8405.5</v>
       </c>
       <c r="B5077">
-        <v>140.63916015625</v>
+        <v>141.1098327636719</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -41004,7 +41004,7 @@
         <v>8406</v>
       </c>
       <c r="B5078">
-        <v>140.63916015625</v>
+        <v>141.1098327636719</v>
       </c>
     </row>
     <row r="5079" spans="1:2">
@@ -41012,7 +41012,7 @@
         <v>8406.5</v>
       </c>
       <c r="B5079">
-        <v>137.5136871337891</v>
+        <v>138.6318511962891</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41020,7 +41020,7 @@
         <v>8407</v>
       </c>
       <c r="B5080">
-        <v>140.63916015625</v>
+        <v>141.1098327636719</v>
       </c>
     </row>
     <row r="5081" spans="1:2">
@@ -41028,7 +41028,7 @@
         <v>8407.5</v>
       </c>
       <c r="B5081">
-        <v>143.0441131591797</v>
+        <v>142.5413665771484</v>
       </c>
     </row>
     <row r="5082" spans="1:2">
@@ -41036,7 +41036,7 @@
         <v>8408</v>
       </c>
       <c r="B5082">
-        <v>143.2848815917969</v>
+        <v>147.6210632324219</v>
       </c>
     </row>
     <row r="5083" spans="1:2">
@@ -41044,7 +41044,7 @@
         <v>8408.5</v>
       </c>
       <c r="B5083">
-        <v>149.0659332275391</v>
+        <v>159.3415832519531</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41052,7 +41052,7 @@
         <v>8409</v>
       </c>
       <c r="B5084">
-        <v>152.0536193847656</v>
+        <v>156.952392578125</v>
       </c>
     </row>
     <row r="5085" spans="1:2">
@@ -41060,7 +41060,7 @@
         <v>8409.5</v>
       </c>
       <c r="B5085">
-        <v>147.1129150390625</v>
+        <v>155.6447143554688</v>
       </c>
     </row>
     <row r="5086" spans="1:2">
@@ -41068,7 +41068,7 @@
         <v>8410</v>
       </c>
       <c r="B5086">
-        <v>147.1129150390625</v>
+        <v>155.6447143554688</v>
       </c>
     </row>
     <row r="5087" spans="1:2">
@@ -41076,7 +41076,7 @@
         <v>8410.5</v>
       </c>
       <c r="B5087">
-        <v>150.4626770019531</v>
+        <v>155.3614501953125</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41084,7 +41084,7 @@
         <v>8411</v>
       </c>
       <c r="B5088">
-        <v>150.4626770019531</v>
+        <v>155.3614501953125</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41092,7 +41092,7 @@
         <v>8411.5</v>
       </c>
       <c r="B5089">
-        <v>147.4749908447266</v>
+        <v>157.7506408691406</v>
       </c>
     </row>
     <row r="5090" spans="1:2">
@@ -41100,7 +41100,7 @@
         <v>8412</v>
       </c>
       <c r="B5090">
-        <v>141.6446990966797</v>
+        <v>145.9808807373047</v>
       </c>
     </row>
     <row r="5091" spans="1:2">
@@ -41108,7 +41108,7 @@
         <v>8412.5</v>
       </c>
       <c r="B5091">
-        <v>141.6939392089844</v>
+        <v>146.0301208496094</v>
       </c>
     </row>
     <row r="5092" spans="1:2">
@@ -41116,7 +41116,7 @@
         <v>8413</v>
       </c>
       <c r="B5092">
-        <v>141.6939392089844</v>
+        <v>146.0301208496094</v>
       </c>
     </row>
     <row r="5093" spans="1:2">
@@ -41124,7 +41124,7 @@
         <v>8413.5</v>
       </c>
       <c r="B5093">
-        <v>141.6939392089844</v>
+        <v>146.0301208496094</v>
       </c>
     </row>
     <row r="5094" spans="1:2">
@@ -41132,7 +41132,7 @@
         <v>8414</v>
       </c>
       <c r="B5094">
-        <v>136.3523864746094</v>
+        <v>140.6885681152344</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41140,7 +41140,7 @@
         <v>8414.5</v>
       </c>
       <c r="B5095">
-        <v>136.3523864746094</v>
+        <v>140.6885681152344</v>
       </c>
     </row>
     <row r="5096" spans="1:2">
@@ -41148,7 +41148,7 @@
         <v>8415</v>
       </c>
       <c r="B5096">
-        <v>136.3523864746094</v>
+        <v>140.6885681152344</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41156,7 +41156,7 @@
         <v>8415.5</v>
       </c>
       <c r="B5097">
-        <v>136.1116180419922</v>
+        <v>135.6088714599609</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41164,7 +41164,7 @@
         <v>8416</v>
       </c>
       <c r="B5098">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41172,7 +41172,7 @@
         <v>8416.5</v>
       </c>
       <c r="B5099">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41180,7 +41180,7 @@
         <v>8417</v>
       </c>
       <c r="B5100">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41188,7 +41188,7 @@
         <v>8417.5</v>
       </c>
       <c r="B5101">
-        <v>130.5812530517578</v>
+        <v>131.6993408203125</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41196,7 +41196,7 @@
         <v>8418</v>
       </c>
       <c r="B5102">
-        <v>130.5812530517578</v>
+        <v>131.6993408203125</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41204,7 +41204,7 @@
         <v>8418.5</v>
       </c>
       <c r="B5103">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41212,7 +41212,7 @@
         <v>8419</v>
       </c>
       <c r="B5104">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5105" spans="1:2">
@@ -41220,7 +41220,7 @@
         <v>8419.5</v>
       </c>
       <c r="B5105">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5106" spans="1:2">
@@ -41228,7 +41228,7 @@
         <v>8420</v>
       </c>
       <c r="B5106">
-        <v>136.1116180419922</v>
+        <v>135.6088714599609</v>
       </c>
     </row>
     <row r="5107" spans="1:2">
@@ -41236,7 +41236,7 @@
         <v>8420.5</v>
       </c>
       <c r="B5107">
-        <v>136.3523864746094</v>
+        <v>140.6885681152344</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41244,7 +41244,7 @@
         <v>8421</v>
       </c>
       <c r="B5108">
-        <v>136.3523864746094</v>
+        <v>140.6885681152344</v>
       </c>
     </row>
     <row r="5109" spans="1:2">
@@ -41252,7 +41252,7 @@
         <v>8421.5</v>
       </c>
       <c r="B5109">
-        <v>136.3523864746094</v>
+        <v>140.6885681152344</v>
       </c>
     </row>
     <row r="5110" spans="1:2">
@@ -41260,7 +41260,7 @@
         <v>8422</v>
       </c>
       <c r="B5110">
-        <v>136.3523864746094</v>
+        <v>140.6885681152344</v>
       </c>
     </row>
     <row r="5111" spans="1:2">
@@ -41268,7 +41268,7 @@
         <v>8422.5</v>
       </c>
       <c r="B5111">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5112" spans="1:2">
@@ -41276,7 +41276,7 @@
         <v>8423</v>
       </c>
       <c r="B5112">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5113" spans="1:2">
@@ -41284,7 +41284,7 @@
         <v>8423.5</v>
       </c>
       <c r="B5113">
-        <v>130.5007781982422</v>
+        <v>130.9713745117188</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41292,7 +41292,7 @@
         <v>8424</v>
       </c>
       <c r="B5114">
-        <v>130.5812530517578</v>
+        <v>131.6993408203125</v>
       </c>
     </row>
     <row r="5115" spans="1:2">
@@ -41300,7 +41300,7 @@
         <v>8424.5</v>
       </c>
       <c r="B5115">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5116" spans="1:2">
@@ -41308,7 +41308,7 @@
         <v>8425</v>
       </c>
       <c r="B5116">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41316,7 +41316,7 @@
         <v>8425.5</v>
       </c>
       <c r="B5117">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41324,7 +41324,7 @@
         <v>8426</v>
       </c>
       <c r="B5118">
-        <v>130.5812530517578</v>
+        <v>131.6993408203125</v>
       </c>
     </row>
     <row r="5119" spans="1:2">
@@ -41332,7 +41332,7 @@
         <v>8426.5</v>
       </c>
       <c r="B5119">
-        <v>129.5503540039062</v>
+        <v>133.4673461914062</v>
       </c>
     </row>
     <row r="5120" spans="1:2">
@@ -41340,7 +41340,7 @@
         <v>8427</v>
       </c>
       <c r="B5120">
-        <v>127.7462844848633</v>
+        <v>131.3877868652344</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41348,7 +41348,7 @@
         <v>8427.5</v>
       </c>
       <c r="B5121">
-        <v>125.8277359008789</v>
+        <v>129.46923828125</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41356,7 +41356,7 @@
         <v>8428</v>
       </c>
       <c r="B5122">
-        <v>123.5896530151367</v>
+        <v>132.0679016113281</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41364,7 +41364,7 @@
         <v>8428.5</v>
       </c>
       <c r="B5123">
-        <v>121.062141418457</v>
+        <v>129.5404052734375</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41372,7 +41372,7 @@
         <v>8429</v>
       </c>
       <c r="B5124">
-        <v>121.7652359008789</v>
+        <v>130.2434997558594</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41380,7 +41380,7 @@
         <v>8429.5</v>
       </c>
       <c r="B5125">
-        <v>121.062141418457</v>
+        <v>129.5404052734375</v>
       </c>
     </row>
     <row r="5126" spans="1:2">
@@ -41388,7 +41388,7 @@
         <v>8430</v>
       </c>
       <c r="B5126">
-        <v>123.5896530151367</v>
+        <v>132.0679016113281</v>
       </c>
     </row>
     <row r="5127" spans="1:2">
@@ -41396,7 +41396,7 @@
         <v>8430.5</v>
       </c>
       <c r="B5127">
-        <v>127.7462844848633</v>
+        <v>131.3877868652344</v>
       </c>
     </row>
     <row r="5128" spans="1:2">
@@ -41404,7 +41404,7 @@
         <v>8431</v>
       </c>
       <c r="B5128">
-        <v>130.5007781982422</v>
+        <v>130.9713745117188</v>
       </c>
     </row>
     <row r="5129" spans="1:2">
@@ -41412,7 +41412,7 @@
         <v>8431.5</v>
       </c>
       <c r="B5129">
-        <v>133.7066650390625</v>
+        <v>134.1773376464844</v>
       </c>
     </row>
     <row r="5130" spans="1:2">
@@ -41420,7 +41420,7 @@
         <v>8432</v>
       </c>
       <c r="B5130">
-        <v>130.5812530517578</v>
+        <v>131.6993408203125</v>
       </c>
     </row>
     <row r="5131" spans="1:2">
@@ -41428,7 +41428,7 @@
         <v>8432.5</v>
       </c>
       <c r="B5131">
-        <v>125.5378341674805</v>
+        <v>129.1793365478516</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41436,7 +41436,7 @@
         <v>8433</v>
       </c>
       <c r="B5132">
-        <v>127.7462844848633</v>
+        <v>131.3877868652344</v>
       </c>
     </row>
     <row r="5133" spans="1:2">
@@ -41444,7 +41444,7 @@
         <v>8433.5</v>
       </c>
       <c r="B5133">
-        <v>129.6215667724609</v>
+        <v>133.2630157470703</v>
       </c>
     </row>
     <row r="5134" spans="1:2">
@@ -41452,7 +41452,7 @@
         <v>8434</v>
       </c>
       <c r="B5134">
-        <v>129.5503540039062</v>
+        <v>133.4673461914062</v>
       </c>
     </row>
     <row r="5135" spans="1:2">
@@ -41460,7 +41460,7 @@
         <v>8434.5</v>
       </c>
       <c r="B5135">
-        <v>129.5503540039062</v>
+        <v>133.4673461914062</v>
       </c>
     </row>
     <row r="5136" spans="1:2">
@@ -41468,7 +41468,7 @@
         <v>8435</v>
       </c>
       <c r="B5136">
-        <v>129.5503540039062</v>
+        <v>133.4673461914062</v>
       </c>
     </row>
   </sheetData>
